--- a/Fizyka_Sprawka/Cw100_Kulki_Tuleje_Gestosc.xlsx
+++ b/Fizyka_Sprawka/Cw100_Kulki_Tuleje_Gestosc.xlsx
@@ -23,14 +23,54 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+  <si>
+    <t>Lp</t>
+  </si>
+  <si>
+    <t>Kulka</t>
+  </si>
+  <si>
+    <t>Tulejka</t>
+  </si>
+  <si>
+    <t>Przyrzad</t>
+  </si>
+  <si>
+    <t>m[g]</t>
+  </si>
+  <si>
+    <t>0,72</t>
+  </si>
+  <si>
+    <t>8,24</t>
+  </si>
+  <si>
+    <t>Niepewnosc Standardowa- Ocena Typu B</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="#,##0.0000000000"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -54,8 +94,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -71,6 +119,1743 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>569706</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>65985</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1709122" cy="500137"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6085923" y="2542485"/>
+              <a:ext cx="1709122" cy="500137"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐵</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>(</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>∆</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑝</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>)</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>(</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>∆</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑒</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>)</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6085923" y="2542485"/>
+              <a:ext cx="1709122" cy="500137"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢_𝐵 (𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=√(〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑝 𝑥)〗^2/3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑥)〗^2/3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>273326</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3835987" cy="534185"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="273326" y="762000"/>
+              <a:ext cx="3835987" cy="534185"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐵</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>∆</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          </a:rPr>
+                                          <m:t>𝑝</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑥</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:sSub>
+                                      <m:sSubPr>
+                                        <m:ctrlPr>
+                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                        </m:ctrlPr>
+                                      </m:sSubPr>
+                                      <m:e>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="+mn-lt"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>∆</m:t>
+                                        </m:r>
+                                      </m:e>
+                                      <m:sub>
+                                        <m:r>
+                                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                            <a:solidFill>
+                                              <a:schemeClr val="tx1"/>
+                                            </a:solidFill>
+                                            <a:effectLst/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                            <a:ea typeface="+mn-ea"/>
+                                            <a:cs typeface="+mn-cs"/>
+                                          </a:rPr>
+                                          <m:t>𝑒</m:t>
+                                        </m:r>
+                                      </m:sub>
+                                    </m:sSub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑥</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:rad>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>0,01</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:d>
+                                  <m:dPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:dPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>0</m:t>
+                                    </m:r>
+                                  </m:e>
+                                </m:d>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:rad>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>0,0001</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>= </m:t>
+                        </m:r>
+                      </m:e>
+                    </m:rad>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="273326" y="762000"/>
+              <a:ext cx="3835987" cy="534185"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢_𝐵 (𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑝 𝑥)^2/3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^2/3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0,01</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)^2/3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)^2/3)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0,0001/3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66261</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14909</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="726224" cy="356957"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="66261" y="2491409"/>
+              <a:ext cx="726224" cy="356957"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∆</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=0,01</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="66261" y="2491409"/>
+              <a:ext cx="726224" cy="356957"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑝 𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=0,01</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -336,14 +2121,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9">
+        <v>1E-4</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="4">
+        <f>B9/C9</f>
+        <v>3.3333333333333335E-5</v>
+      </c>
+      <c r="E9">
+        <f>SQRT(D9)</f>
+        <v>5.773502691896258E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <f>B10/C10</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="I1:P1"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="I13:O13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Fizyka_Sprawka/Cw100_Kulki_Tuleje_Gestosc.xlsx
+++ b/Fizyka_Sprawka/Cw100_Kulki_Tuleje_Gestosc.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="100a)-Niepewnosc pomiarowa masy" sheetId="1" r:id="rId1"/>
+    <sheet name="a)-Niepewnosc pomiarowa masy" sheetId="1" r:id="rId1"/>
+    <sheet name="b)-Srednica i jej niepewnosc" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,18 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
-  <si>
-    <t>Lp</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Kulka</t>
   </si>
   <si>
     <t>Tulejka</t>
-  </si>
-  <si>
-    <t>Przyrzad</t>
   </si>
   <si>
     <t>m[g]</t>
@@ -49,13 +44,44 @@
   <si>
     <t>Niepewnosc Standardowa- Ocena Typu B</t>
   </si>
+  <si>
+    <t>Nazwa</t>
+  </si>
+  <si>
+    <t>0,01</t>
+  </si>
+  <si>
+    <t>Waga</t>
+  </si>
+  <si>
+    <t>Dane</t>
+  </si>
+  <si>
+    <t>Obliczenie</t>
+  </si>
+  <si>
+    <t>Odpowiedz</t>
+  </si>
+  <si>
+    <t>Legenda</t>
+  </si>
+  <si>
+    <t>Co</t>
+  </si>
+  <si>
+    <t>Tlumaczenie</t>
+  </si>
+  <si>
+    <t>Niepewnosc pomiarowa</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#,##0.0000000000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="169" formatCode="0.0000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -82,7 +108,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -90,20 +116,185 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -125,10 +316,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>569706</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>65985</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>321227</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107398</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1709122" cy="500137"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -140,7 +331,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6085923" y="2542485"/>
+              <a:off x="321227" y="1250398"/>
               <a:ext cx="1709122" cy="500137"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -168,6 +359,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -324,7 +516,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -339,7 +531,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -352,7 +544,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -366,7 +558,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -379,7 +571,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -407,7 +599,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -419,7 +611,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -433,7 +625,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -449,7 +641,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -475,7 +667,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6085923" y="2542485"/>
+              <a:off x="321227" y="1250398"/>
               <a:ext cx="1709122" cy="500137"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -503,17 +695,18 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝑢_𝐵 (𝑥)</a:t>
+                <a:t>𝑢_𝐵 (𝑥)=</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>=√(〖</a:t>
+                <a:t>√(〖</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -546,7 +739,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -558,7 +751,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -570,7 +763,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -586,31 +779,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑒</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> 𝑥)〗^2/3</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
+                <a:t>𝑒 𝑥)〗^2/3)</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -623,9 +792,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>273326</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>57978</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>74544</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3835987" cy="534185"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -637,7 +806,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="273326" y="762000"/>
+              <a:off x="57978" y="2194892"/>
               <a:ext cx="3835987" cy="534185"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -665,6 +834,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -825,7 +995,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -840,7 +1010,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -870,7 +1040,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -883,7 +1053,7 @@
                                               <a:schemeClr val="tx1"/>
                                             </a:solidFill>
                                             <a:effectLst/>
-                                            <a:latin typeface="+mn-lt"/>
+                                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                             <a:ea typeface="+mn-ea"/>
                                             <a:cs typeface="+mn-cs"/>
                                           </a:rPr>
@@ -911,7 +1081,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -927,7 +1097,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -943,7 +1113,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -965,7 +1135,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -980,7 +1150,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -996,7 +1166,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1011,7 +1181,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1026,7 +1196,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -1055,7 +1225,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1071,7 +1241,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1085,7 +1255,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1099,7 +1269,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1114,7 +1284,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1129,7 +1299,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -1158,7 +1328,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1174,7 +1344,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1205,7 +1375,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1221,7 +1391,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1234,7 +1404,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1248,7 +1418,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1292,7 +1462,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="273326" y="762000"/>
+              <a:off x="57978" y="2194892"/>
               <a:ext cx="3835987" cy="534185"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1320,6 +1490,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -1375,7 +1546,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -1391,7 +1562,25 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑒</a:t>
+                <a:t>𝑒 𝑥)^2/3)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=√(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -1399,11 +1588,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> 𝑥</a:t>
+                <a:t>(0,01)^2/3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -1415,7 +1616,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)</a:t>
+                <a:t>(0)^2/3)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -1423,197 +1636,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>^2/3</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=√(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>0,01</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)^2/3</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>0</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)^2/3)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>√(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>0,0001/3</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>= </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
+                <a:t>0,0001/3= ) </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -1631,12 +1658,12 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>66261</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>14909</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>140805</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>188844</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="726224" cy="356957"/>
+    <xdr:ext cx="298287" cy="354841"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -1646,8 +1673,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="66261" y="2491409"/>
-              <a:ext cx="726224" cy="356957"/>
+              <a:off x="1366631" y="188844"/>
+              <a:ext cx="298287" cy="354841"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1674,6 +1701,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -1688,7 +1716,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1701,7 +1729,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1715,7 +1743,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1729,23 +1757,11 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
                       <m:t>𝑥</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>=0,01</m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -1773,8 +1789,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="66261" y="2491409"/>
-              <a:ext cx="726224" cy="356957"/>
+              <a:off x="1366631" y="188844"/>
+              <a:ext cx="298287" cy="354841"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1801,13 +1817,14 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -1819,11 +1836,203 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t>𝑝 𝑥</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="298287" cy="354841"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1838739" y="381000"/>
+              <a:ext cx="298287" cy="354841"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>∆</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑝</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100" b="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1838739" y="381000"/>
+              <a:ext cx="298287" cy="354841"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∆_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -1835,7 +2044,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>=0,01</a:t>
+                <a:t>𝑝 𝑥</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100" b="0">
                 <a:solidFill>
@@ -2124,134 +2333,233 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="14.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="27"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="I2" t="s">
-        <v>0</v>
+      <c r="C4" s="8"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
       </c>
-      <c r="J2" t="s">
-        <v>4</v>
+      <c r="B5" s="7"/>
+      <c r="C5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="20"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="17" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="7">
         <v>1E-4</v>
       </c>
-      <c r="C9">
+      <c r="G13" s="24">
+        <f>F13/F14</f>
+        <v>3.3333333333333335E-5</v>
+      </c>
+      <c r="H13" s="18">
+        <f>SQRT(G13)</f>
+        <v>5.773502691896258E-3</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7">
         <v>3</v>
       </c>
-      <c r="D9" s="4">
-        <f>B9/C9</f>
-        <v>3.3333333333333335E-5</v>
-      </c>
-      <c r="E9">
-        <f>SQRT(D9)</f>
-        <v>5.773502691896258E-3</v>
-      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <f>B10/C10</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="H16" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:H1"/>
+  <mergeCells count="9">
     <mergeCell ref="I1:P1"/>
-    <mergeCell ref="A13:H13"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="A16:B16"/>
-    <mergeCell ref="I13:O13"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="D1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Fizyka_Sprawka/Cw100_Kulki_Tuleje_Gestosc.xlsx
+++ b/Fizyka_Sprawka/Cw100_Kulki_Tuleje_Gestosc.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
   <si>
     <t>Kulka</t>
   </si>
@@ -113,14 +113,16 @@
   <si>
     <t>a) Oblicz niepewność pomiarową dla masy mierzonego elementu</t>
   </si>
+  <si>
+    <t>Niep. Stand. Ocena Typu A - Obliczenie</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000000000"/>
-    <numFmt numFmtId="165" formatCode="0.000000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -525,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -555,20 +557,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -580,7 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -589,13 +593,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -610,37 +638,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,481 +657,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>481522</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>172196</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1709122" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2621846" y="1360020"/>
-              <a:ext cx="1709122" cy="500137"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑢</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝐵</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>(</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑥</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>)=</m:t>
-                    </m:r>
-                    <m:rad>
-                      <m:radPr>
-                        <m:degHide m:val="on"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:radPr>
-                      <m:deg/>
-                      <m:e>
-                        <m:f>
-                          <m:fPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:fPr>
-                          <m:num>
-                            <m:sSup>
-                              <m:sSupPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSupPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>(</m:t>
-                                </m:r>
-                                <m:sSub>
-                                  <m:sSubPr>
-                                    <m:ctrlPr>
-                                      <a:rPr lang="en-US" sz="1100" i="1">
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      </a:rPr>
-                                    </m:ctrlPr>
-                                  </m:sSubPr>
-                                  <m:e>
-                                    <m:r>
-                                      <a:rPr lang="en-US" sz="1100" i="1">
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      </a:rPr>
-                                      <m:t>∆</m:t>
-                                    </m:r>
-                                  </m:e>
-                                  <m:sub>
-                                    <m:r>
-                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                      </a:rPr>
-                                      <m:t>𝑝</m:t>
-                                    </m:r>
-                                  </m:sub>
-                                </m:sSub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>𝑥</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>)</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sup>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  </a:rPr>
-                                  <m:t>2</m:t>
-                                </m:r>
-                              </m:sup>
-                            </m:sSup>
-                          </m:num>
-                          <m:den>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              </a:rPr>
-                              <m:t>3</m:t>
-                            </m:r>
-                          </m:den>
-                        </m:f>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>+</m:t>
-                        </m:r>
-                        <m:f>
-                          <m:fPr>
-                            <m:ctrlPr>
-                              <a:rPr lang="en-US" sz="1100" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                            </m:ctrlPr>
-                          </m:fPr>
-                          <m:num>
-                            <m:sSup>
-                              <m:sSupPr>
-                                <m:ctrlPr>
-                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                </m:ctrlPr>
-                              </m:sSupPr>
-                              <m:e>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>(</m:t>
-                                </m:r>
-                                <m:sSub>
-                                  <m:sSubPr>
-                                    <m:ctrlPr>
-                                      <a:rPr lang="en-US" sz="1100" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                    </m:ctrlPr>
-                                  </m:sSubPr>
-                                  <m:e>
-                                    <m:r>
-                                      <a:rPr lang="en-US" sz="1100" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>∆</m:t>
-                                    </m:r>
-                                  </m:e>
-                                  <m:sub>
-                                    <m:r>
-                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                        <a:solidFill>
-                                          <a:schemeClr val="tx1"/>
-                                        </a:solidFill>
-                                        <a:effectLst/>
-                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                        <a:ea typeface="+mn-ea"/>
-                                        <a:cs typeface="+mn-cs"/>
-                                      </a:rPr>
-                                      <m:t>𝑒</m:t>
-                                    </m:r>
-                                  </m:sub>
-                                </m:sSub>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝑥</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>)</m:t>
-                                </m:r>
-                              </m:e>
-                              <m:sup>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>2</m:t>
-                                </m:r>
-                              </m:sup>
-                            </m:sSup>
-                          </m:num>
-                          <m:den>
-                            <m:r>
-                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                                <a:solidFill>
-                                  <a:schemeClr val="tx1"/>
-                                </a:solidFill>
-                                <a:effectLst/>
-                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                <a:ea typeface="+mn-ea"/>
-                                <a:cs typeface="+mn-cs"/>
-                              </a:rPr>
-                              <m:t>3</m:t>
-                            </m:r>
-                          </m:den>
-                        </m:f>
-                      </m:e>
-                    </m:rad>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="2621846" y="1360020"/>
-              <a:ext cx="1709122" cy="500137"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑢_𝐵 (𝑥)=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>√(〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>∆_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑝 𝑥)〗^2/3</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>∆_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑒 𝑥)〗^2/3)</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1546,13 +1068,13 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>174634</xdr:rowOff>
+      <xdr:rowOff>41284</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1748116" cy="486514"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -1560,7 +1082,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="33618" y="1362458"/>
+              <a:off x="0" y="1422409"/>
               <a:ext cx="1748116" cy="486514"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1912,7 +1434,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -1920,7 +1442,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="33618" y="1362458"/>
+              <a:off x="0" y="1422409"/>
               <a:ext cx="1748116" cy="486514"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1973,7 +1495,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -1985,7 +1507,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -1997,7 +1519,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -2009,7 +1531,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -2021,7 +1543,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -2033,7 +1555,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -2045,7 +1567,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -2057,11 +1579,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>(</a:t>
+                <a:t>(𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -2073,7 +1607,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑥</a:t>
+                <a:t>𝑖 </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -2081,11 +1615,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〗_</a:t>
+                <a:t> 〖</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -2097,7 +1631,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑖</a:t>
+                <a:t>− 𝑥 ̅)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -2105,11 +1651,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> </a:t>
+                <a:t>2</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -2117,82 +1663,10 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> 〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>− </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑥 ̅</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〗^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
                 <a:t> "</a:t>
               </a:r>
               <a:r>
@@ -2202,11 +1676,18 @@
                 <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>" )/(</a:t>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)/(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -2230,23 +1711,23 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>496954</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>33131</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>64774</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2168</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3801719" cy="712696"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="2353234" cy="486514"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3453845" y="2170044"/>
-              <a:ext cx="3801719" cy="712696"/>
+              <a:off x="64774" y="2345318"/>
+              <a:ext cx="2353234" cy="486514"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2269,7 +1750,652 @@
           </xdr:style>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑢</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐴</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>0</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="64774" y="2345318"/>
+              <a:ext cx="2353234" cy="486514"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢_𝐴 (𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>0</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>52897</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>134096</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1709122" cy="500137"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="52897" y="2877296"/>
+              <a:ext cx="1709122" cy="500137"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐵</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑥</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>)=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>(</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>∆</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      </a:rPr>
+                                      <m:t>𝑝</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>)</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="en-US" sz="1100" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:sSup>
+                              <m:sSupPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSupPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>(</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>∆</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑒</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>)</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sup>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>2</m:t>
+                                </m:r>
+                              </m:sup>
+                            </m:sSup>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>3</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="52897" y="2877296"/>
+              <a:ext cx="1709122" cy="500137"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢_𝐵 (𝑥)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√(〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑝 𝑥)〗^2/3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑒 𝑥)〗^2/3)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>96904</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3801719" cy="776494"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="96904" y="3747881"/>
+              <a:ext cx="3801719" cy="776494"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
@@ -2959,16 +3085,16 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvPr id="17" name="TextBox 16"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3453845" y="2170044"/>
-              <a:ext cx="3801719" cy="712696"/>
+              <a:off x="96904" y="3747881"/>
+              <a:ext cx="3801719" cy="776494"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -2991,11 +3117,10 @@
           </xdr:style>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
+              <a:noAutofit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -3157,29 +3282,23 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>0.000333333</a:t>
+                <a:t>"0.000333333</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
                 <a:t> </a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>" )</a:t>
+                <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100"/>
@@ -3219,7 +3338,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3236,193 +3355,21 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>169549</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>11693</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>100161</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2353234" cy="486514"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="1714499" cy="486514"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvPr id="18" name="TextBox 17"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="169549" y="2174428"/>
-              <a:ext cx="2353234" cy="486514"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a14:m>
-                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:sSub>
-                    <m:sSubPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:sSubPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑢</m:t>
-                      </m:r>
-                    </m:e>
-                    <m:sub>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝐴</m:t>
-                      </m:r>
-                    </m:sub>
-                  </m:sSub>
-                  <m:d>
-                    <m:dPr>
-                      <m:ctrlPr>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                      </m:ctrlPr>
-                    </m:dPr>
-                    <m:e>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        </a:rPr>
-                        <m:t>𝑥</m:t>
-                      </m:r>
-                    </m:e>
-                  </m:d>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                    </a:rPr>
-                    <m:t>=</m:t>
-                  </m:r>
-                </m:oMath>
-              </a14:m>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100"/>
-                <a:t>0</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="11" name="TextBox 10"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="169549" y="2174428"/>
-              <a:ext cx="2353234" cy="486514"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑢_𝐴 (𝑥)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100"/>
-                <a:t>0</a:t>
-              </a:r>
-            </a:p>
-            <a:p>
-              <a:pPr/>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>11205</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>128736</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1714499" cy="486514"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="TextBox 11"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="11205" y="3266383"/>
+              <a:off x="0" y="4986486"/>
               <a:ext cx="1714499" cy="486514"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3650,15 +3597,15 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvPr id="18" name="TextBox 17"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="11205" y="3266383"/>
+              <a:off x="0" y="4986486"/>
               <a:ext cx="1714499" cy="486514"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3715,19 +3662,7 @@
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝐴</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>2 (𝑥)+</a:t>
+                <a:t>𝐴^2 (𝑥)+</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -3735,7 +3670,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3747,7 +3682,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -3763,31 +3698,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝐵</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>^2 (𝑥)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
+                <a:t>𝐵^2 (𝑥) </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -3812,22 +3723,22 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>155863</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>185057</xdr:rowOff>
+      <xdr:colOff>117763</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>89807</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2095500" cy="1027216"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="2787362" cy="1027216"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="TextBox 13"/>
+            <xdr:cNvPr id="19" name="TextBox 18"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="155863" y="4358739"/>
-              <a:ext cx="2095500" cy="1027216"/>
+              <a:off x="117763" y="5947682"/>
+              <a:ext cx="2787362" cy="1027216"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4281,16 +4192,16 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="14" name="TextBox 13"/>
+            <xdr:cNvPr id="19" name="TextBox 18"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="155863" y="4358739"/>
-              <a:ext cx="2095500" cy="1027216"/>
+              <a:off x="117763" y="5947682"/>
+              <a:ext cx="2787362" cy="1027216"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -4317,7 +4228,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -4346,19 +4256,7 @@
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>𝐴</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>2 (𝑥)+</a:t>
+                <a:t>𝐴^2 (𝑥)+</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -4366,7 +4264,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4378,7 +4276,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -4394,7 +4292,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝐵</a:t>
+                <a:t>𝐵^2 (𝑥) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -4402,11 +4312,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>^2 (𝑥)</a:t>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -4418,19 +4340,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> </a:t>
+                <a:t>0</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>)</a:t>
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -4442,6 +4364,34 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
+                <a:t>2+〖0.0058〗^2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
                 <a:t>=</a:t>
               </a:r>
               <a:r>
@@ -4450,99 +4400,33 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>√(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>0</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>^</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>2+</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖0.0058〗^2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
+                <a:t>"0.00003364</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
                 <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100"/>
-                <a:t>=</a:t>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -4550,47 +4434,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>√(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"0.00003364</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" i="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -7471,20 +7315,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="4" max="4" width="8" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="6.5703125" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" customWidth="1"/>
     <col min="10" max="10" width="16.42578125" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
@@ -7492,25 +7336,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33" t="s">
@@ -7519,12 +7363,12 @@
       <c r="B2" s="34"/>
       <c r="C2" s="34"/>
       <c r="D2" s="35"/>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
@@ -7538,56 +7382,56 @@
       <c r="E3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="36"/>
-      <c r="H3" s="36"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="47">
+      <c r="B4" s="26">
         <v>0.72</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="49"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="40"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="27">
         <v>8.24</v>
       </c>
-      <c r="C5" s="51"/>
-      <c r="D5" s="52"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="45"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="37"/>
       <c r="H5" s="38"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="54">
+      <c r="B6" s="28"/>
+      <c r="C6" s="43">
         <v>0.01</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="44"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="48"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
@@ -7596,220 +7440,174 @@
       <c r="B7" s="34"/>
       <c r="C7" s="34"/>
       <c r="D7" s="35"/>
-      <c r="E7" s="33" t="s">
-        <v>23</v>
-      </c>
+      <c r="E7" s="33"/>
       <c r="F7" s="34"/>
       <c r="G7" s="34"/>
       <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="40"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="38"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="5"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5"/>
+    <row r="10" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="10"/>
+      <c r="A11" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="35"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="35"/>
+      <c r="A12" s="3"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
+    <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="35"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="9"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="10"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="35"/>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="23"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="10"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="35"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="5"/>
-      <c r="F20" s="30"/>
+      <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="35"/>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="45"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="10"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="35"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="D25" s="9"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="40"/>
-      <c r="B26" s="37"/>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="5"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="5"/>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="35"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="10"/>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="20">
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="J1:Q1"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A8:D8"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D5"/>
     <mergeCell ref="C6:D6"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A17:D17"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:D2"/>
@@ -7912,7 +7710,7 @@
         <v>15.18</v>
       </c>
       <c r="G3" s="17"/>
-      <c r="H3" s="22" t="s">
+      <c r="H3" s="21" t="s">
         <v>9</v>
       </c>
     </row>
@@ -7986,7 +7784,7 @@
         <v>15.85</v>
       </c>
       <c r="G6" s="7"/>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8125,18 +7923,18 @@
       <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="37"/>
       <c r="C14" s="37"/>
       <c r="D14" s="38"/>
-      <c r="E14" s="36" t="s">
+      <c r="E14" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36" t="s">
+      <c r="F14" s="49"/>
+      <c r="G14" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="36"/>
+      <c r="H14" s="49"/>
     </row>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
@@ -8167,16 +7965,16 @@
       <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="24"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
       <c r="D17" s="10"/>
-      <c r="E17" s="26"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="5">
         <f>AVERAGE(B3:B12)</f>
         <v>8.166999999999998</v>
       </c>
-      <c r="G17" s="26"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="5">
         <f>AVERAGE(D3:D12)</f>
         <v>34.169999999999995</v>
@@ -8186,30 +7984,30 @@
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="24" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="10">
         <f>A12</f>
         <v>10</v>
       </c>
-      <c r="G18" s="26"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="5">
         <f>AVERAGE(E3:E12)</f>
         <v>12.215</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="26"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="5">
         <f>AVERAGE(F3:F12)</f>
         <v>15.858000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G20" s="25" t="s">
+      <c r="G20" s="24" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="10">

--- a/Fizyka_Sprawka/Cw100_Kulki_Tuleje_Gestosc.xlsx
+++ b/Fizyka_Sprawka/Cw100_Kulki_Tuleje_Gestosc.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="a)-Niepewnosc pomiarowa masy" sheetId="1" r:id="rId1"/>
     <sheet name="b)-Srednica i jej niepewnosc" sheetId="2" r:id="rId2"/>
+    <sheet name="c1)V i jej niepewnosc(kula)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Kulka</t>
   </si>
@@ -116,6 +117,39 @@
   <si>
     <t>Wyniki [mm]</t>
   </si>
+  <si>
+    <t>Całkowita Niep. Stand.- Obliczenie - Zew</t>
+  </si>
+  <si>
+    <t>Kula</t>
+  </si>
+  <si>
+    <t>Obliczanie Objetosci</t>
+  </si>
+  <si>
+    <t>Divide/6</t>
+  </si>
+  <si>
+    <t>Obliczanie Niepewnosci Objetosci</t>
+  </si>
+  <si>
+    <t>POWER(d,2)</t>
+  </si>
+  <si>
+    <t>POWER(d,3)</t>
+  </si>
+  <si>
+    <t>POWER(d,2)/2</t>
+  </si>
+  <si>
+    <t>POWER(d,2)/2 * u(x)</t>
+  </si>
+  <si>
+    <t>(POWER(d,2)/2 * u(x))^2</t>
+  </si>
+  <si>
+    <t>sqrt((POWER(d,2)/2 * u(x))^2)</t>
+  </si>
 </sst>
 </file>
 
@@ -141,7 +175,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -163,6 +197,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -591,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -644,96 +690,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -767,17 +723,81 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -789,6 +809,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5148,8 +5200,8 @@
       <xdr:rowOff>83726</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2337821" cy="602074"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27"/>
@@ -5635,7 +5687,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="28" name="TextBox 27"/>
@@ -6021,8 +6073,8 @@
       <xdr:rowOff>50425</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2744000" cy="890869"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="TextBox 32"/>
@@ -6730,7 +6782,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="33" name="TextBox 32"/>
@@ -7031,8 +7083,8 @@
       <xdr:rowOff>28574</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2590800" cy="885825"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="TextBox 33"/>
@@ -7584,7 +7636,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="34" name="TextBox 33"/>
@@ -7994,8 +8046,8 @@
       <xdr:rowOff>55978</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2168856" cy="689458"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="TextBox 40"/>
@@ -8478,7 +8530,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="41" name="TextBox 40"/>
@@ -8858,8 +8910,8 @@
       <xdr:rowOff>10717</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2575472" cy="1076254"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="TextBox 42"/>
@@ -9567,7 +9619,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="43" name="TextBox 42"/>
@@ -9868,8 +9920,8 @@
       <xdr:rowOff>17367</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2442882" cy="778250"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="50" name="TextBox 49"/>
@@ -9905,7 +9957,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -10357,14 +10408,7 @@
                           <m:nor/>
                         </m:rPr>
                         <a:rPr lang="en-US"/>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <m:rPr>
-                          <m:nor/>
-                        </m:rPr>
-                        <a:rPr lang="en-US"/>
-                        <m:t> </m:t>
+                        <m:t>  </m:t>
                       </m:r>
                     </m:e>
                   </m:rad>
@@ -10434,7 +10478,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="50" name="TextBox 49"/>
@@ -10840,8 +10884,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="298287" cy="354841"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="51" name="TextBox 50"/>
@@ -10957,7 +11001,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="51" name="TextBox 50"/>
@@ -11044,8 +11088,8 @@
       <xdr:rowOff>20123</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="842015" cy="170377"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="52" name="TextBox 51"/>
@@ -11129,7 +11173,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="52" name="TextBox 51"/>
@@ -11203,8 +11247,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="298287" cy="354841"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="53" name="TextBox 52"/>
@@ -11320,7 +11364,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="53" name="TextBox 52"/>
@@ -11407,8 +11451,8 @@
       <xdr:rowOff>8917</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="961382" cy="222996"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="54" name="TextBox 53"/>
@@ -11507,7 +11551,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="54" name="TextBox 53"/>
@@ -11584,8 +11628,8 @@
       <xdr:rowOff>8918</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1151883" cy="140169"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="55" name="TextBox 54"/>
@@ -11684,7 +11728,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="55" name="TextBox 54"/>
@@ -11761,8 +11805,8 @@
       <xdr:rowOff>3949</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1132004" cy="186552"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="56" name="TextBox 55"/>
@@ -11861,7 +11905,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="56" name="TextBox 55"/>
@@ -11938,8 +11982,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="298287" cy="354841"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="78" name="TextBox 77"/>
@@ -12055,7 +12099,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="78" name="TextBox 77"/>
@@ -12142,8 +12186,8 @@
       <xdr:rowOff>8917</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111248" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="79" name="TextBox 78"/>
@@ -12212,7 +12256,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="79" name="TextBox 78"/>
@@ -12277,8 +12321,8 @@
       <xdr:rowOff>189752</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="151067" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="80" name="TextBox 79"/>
@@ -12354,7 +12398,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="80" name="TextBox 79"/>
@@ -12408,6 +12452,5267 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝑖</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="842015" cy="170377"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="66675" y="381000"/>
+              <a:ext cx="842015" cy="170377"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> −ś</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑟𝑒𝑑𝑛𝑖𝑐𝑦</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="66675" y="381000"/>
+              <a:ext cx="842015" cy="170377"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  −ś𝑟𝑒𝑑𝑛𝑖𝑐𝑦</a:t>
+              </a:r>
+              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102291</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>23192</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2657779" cy="318036"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="102291" y="785192"/>
+              <a:ext cx="2657779" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑉</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝜋</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑟</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝜋</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:f>
+                          <m:fPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:fPr>
+                          <m:num>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>1</m:t>
+                            </m:r>
+                          </m:num>
+                          <m:den>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:den>
+                        </m:f>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>4</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝜋</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>8</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>6</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝜋</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="102291" y="785192"/>
+              <a:ext cx="2657779" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑉=  4/3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 𝜋𝑟^3=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>4/3 𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1/2 𝑑)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>4/3 𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 1/8 𝑑^3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1/6</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝜋𝑑^3</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>115956</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>41414</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3464346" cy="318036"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="115956" y="1184414"/>
+              <a:ext cx="3464346" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>𝑉</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>= </m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>6</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝜋</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑑</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>6</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝜋</m:t>
+                    </m:r>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>8.167</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>3</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:f>
+                      <m:fPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:fPr>
+                      <m:num>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>1</m:t>
+                        </m:r>
+                      </m:num>
+                      <m:den>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>6</m:t>
+                        </m:r>
+                      </m:den>
+                    </m:f>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝜋</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>544.73799</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>90.789666</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝜋</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="115956" y="1184414"/>
+              <a:ext cx="3464346" cy="318036"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑉= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 1/6</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝜋𝑑^3=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1/6 𝜋〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>8.167</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^3=1/6 𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>544.73799</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>90.789666</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>21770</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>75461</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1483062" cy="578362"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21770" y="1980461"/>
+              <a:ext cx="1483062" cy="578362"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑐</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑉</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>ⅆ</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑉</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>ⅆ</m:t>
+                                </m:r>
+                                <m:sSub>
+                                  <m:sSubPr>
+                                    <m:ctrlPr>
+                                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                    </m:ctrlPr>
+                                  </m:sSubPr>
+                                  <m:e>
+                                    <m:r>
+                                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>𝑥</m:t>
+                                    </m:r>
+                                  </m:e>
+                                  <m:sub>
+                                    <m:r>
+                                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                        <a:solidFill>
+                                          <a:schemeClr val="tx1"/>
+                                        </a:solidFill>
+                                        <a:effectLst/>
+                                        <a:latin typeface="+mn-lt"/>
+                                        <a:ea typeface="+mn-ea"/>
+                                        <a:cs typeface="+mn-cs"/>
+                                      </a:rPr>
+                                      <m:t>1</m:t>
+                                    </m:r>
+                                  </m:sub>
+                                </m:sSub>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑢</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:sSub>
+                              <m:sSubPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:sSubPr>
+                              <m:e>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑥</m:t>
+                                </m:r>
+                              </m:e>
+                              <m:sub>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="+mn-lt"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>1</m:t>
+                                </m:r>
+                              </m:sub>
+                            </m:sSub>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>))</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:rad>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="21770" y="1980461"/>
+              <a:ext cx="1483062" cy="578362"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/(ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑢(𝑥_1))</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312842" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="65314" y="386442"/>
+              <a:ext cx="312842" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑢</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="65314" y="386442"/>
+              <a:ext cx="312842" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑢(𝑥)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>68152</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>41041</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2083840" cy="247055"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="68152" y="2517541"/>
+              <a:ext cx="2083840" cy="247055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑉</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑑</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑉</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑑</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑑</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>6</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑑</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>3</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>6</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>3</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑑</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑑</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="68152" y="2517541"/>
+              <a:ext cx="2083840" cy="247055"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  1/6 𝜋𝑑^3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1/6 𝜋〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝜋𝑑^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38781</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2784231" cy="1022890"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="95250" y="3277281"/>
+              <a:ext cx="2784231" cy="1022890"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑢</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑐</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑉</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:f>
+                            <m:fPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:fPr>
+                            <m:num>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>ⅆ</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑉</m:t>
+                              </m:r>
+                            </m:num>
+                            <m:den>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>ⅆ</m:t>
+                              </m:r>
+                              <m:sSub>
+                                <m:sSubPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSubPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑥</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sub>
+                                  <m:r>
+                                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="+mn-lt"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>1</m:t>
+                                  </m:r>
+                                </m:sub>
+                              </m:sSub>
+                            </m:den>
+                          </m:f>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑢</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑥</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>))</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:f>
+                            <m:fPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:fPr>
+                            <m:num>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                            </m:num>
+                            <m:den>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:den>
+                          </m:f>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝜋</m:t>
+                          </m:r>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑑</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="+mn-lt"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>∗</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑢</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑑</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>))</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>33.3499445</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝜋</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>∗</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>0.067</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US"/>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2.23444628</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US"/>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>4.99275018</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>= </m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2.23444628</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>≈</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>2.3</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="95250" y="3277281"/>
+              <a:ext cx="2784231" cy="1022890"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/(ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑢(𝑥_1))</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(1/2 𝜋𝑑^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑢(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>))〗^2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"33.3499445</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" 𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" ∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"0.067</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"2.23444628</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"4.99275018</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2.23444628</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>≈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2.3</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>101688</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>56366</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2155847" cy="243656"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="101688" y="2913866"/>
+              <a:ext cx="2155847" cy="243656"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑑</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>1</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:nor/>
+                    </m:rPr>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>66.69989</m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:nor/>
+                    </m:rPr>
+                    <a:rPr lang="en-US"/>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:nor/>
+                    </m:rPr>
+                    <a:rPr lang="pl-PL" b="0" i="0"/>
+                    <m:t>= </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:nor/>
+                    </m:rPr>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>33.3499445</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:nor/>
+                    </m:rPr>
+                    <a:rPr lang="en-US"/>
+                    <m:t> </m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="101688" y="2913866"/>
+              <a:ext cx="2155847" cy="243656"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝜋𝑑^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1/2 𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"66.69989</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>33.3499445</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t> </a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -12704,39 +18009,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="53" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
@@ -12745,16 +18050,16 @@
       <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="42"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -12764,14 +18069,14 @@
       <c r="B4" s="22">
         <v>0.72</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="56"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="77"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
@@ -12780,10 +18085,10 @@
       <c r="B5" s="23">
         <v>8.24</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="78" t="s">
         <v>28</v>
       </c>
       <c r="G5" s="58"/>
@@ -12794,26 +18099,26 @@
         <v>4</v>
       </c>
       <c r="B6" s="24"/>
-      <c r="C6" s="48">
+      <c r="C6" s="70">
         <v>0.01</v>
       </c>
-      <c r="D6" s="49"/>
+      <c r="D6" s="71"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="52"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="73"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -12834,12 +18139,12 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="42"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -12848,15 +18153,15 @@
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="42"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
+      <c r="A14" s="57"/>
       <c r="B14" s="58"/>
       <c r="C14" s="58"/>
       <c r="D14" s="59"/>
@@ -12880,12 +18185,12 @@
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="42"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -12906,18 +18211,18 @@
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="61"/>
-      <c r="B22" s="51"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="8"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="42"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="62"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -12938,12 +18243,12 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="42"/>
+      <c r="B27" s="61"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
@@ -12965,11 +18270,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="J1:Q1"/>
@@ -12985,6 +18285,11 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12996,8 +18301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13022,16 +18327,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="40" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="62"/>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -13254,100 +18559,100 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="40" t="s">
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="42"/>
+      <c r="F14" s="62"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="89"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="89" t="s">
+      <c r="A15" s="79"/>
+      <c r="B15" s="76"/>
+      <c r="C15" s="76"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="56"/>
+      <c r="F15" s="77"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="58"/>
       <c r="C16" s="58"/>
       <c r="D16" s="59"/>
-      <c r="E16" s="60" t="s">
+      <c r="E16" s="57" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="59"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="82" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="60" t="s">
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="57" t="s">
         <v>18</v>
       </c>
       <c r="F17" s="59"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="61"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="91" t="s">
+      <c r="A18" s="63"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="90"/>
+      <c r="F18" s="81"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="18"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="53" t="s">
+      <c r="C20" s="55"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="53"/>
+      <c r="F20" s="74"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="40" t="s">
+      <c r="B21" s="62"/>
+      <c r="C21" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="42"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="28" t="s">
         <v>5</v>
       </c>
@@ -13358,22 +18663,22 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="89">
+      <c r="A22" s="79"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="79">
         <v>0.05</v>
       </c>
-      <c r="D22" s="56"/>
+      <c r="D22" s="77"/>
       <c r="E22" s="11"/>
       <c r="F22" s="5">
         <v>0.05</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
+      <c r="A23" s="57"/>
       <c r="B23" s="59"/>
-      <c r="C23" s="60">
-        <v>8.166999999999998</v>
+      <c r="C23" s="57">
+        <v>8.1669999999999998</v>
       </c>
       <c r="D23" s="59"/>
       <c r="E23" s="21"/>
@@ -13382,34 +18687,34 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="61" t="s">
+      <c r="A24" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="61">
+      <c r="B24" s="73"/>
+      <c r="C24" s="63">
         <v>10</v>
       </c>
-      <c r="D24" s="52"/>
+      <c r="D24" s="73"/>
       <c r="E24" s="21"/>
       <c r="F24" s="5">
         <v>12.215</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
+      <c r="A25" s="79"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="76"/>
+      <c r="D25" s="77"/>
       <c r="E25" s="21"/>
       <c r="F25" s="5">
         <v>15.858000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="61"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="52"/>
+      <c r="A26" s="63"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="73"/>
       <c r="E26" s="21" t="s">
         <v>17</v>
       </c>
@@ -13419,40 +18724,40 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="64" t="s">
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="90"/>
+      <c r="E27" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="65"/>
+      <c r="F27" s="89"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="70"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="71"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="41"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="70"/>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="71"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="41"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="71"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="41"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
@@ -13463,76 +18768,76 @@
       <c r="F31" s="30"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="67" t="s">
+      <c r="A32" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="68"/>
-      <c r="C32" s="68"/>
-      <c r="D32" s="69"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
       <c r="E32" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="84"/>
+      <c r="F32" s="54"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="76"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="77"/>
+      <c r="A33" s="46"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="48"/>
+      <c r="E33" s="46"/>
+      <c r="F33" s="47"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="80"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="80"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="50"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="80"/>
+      <c r="A35" s="49"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="50"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="80"/>
+      <c r="A36" s="49"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="50"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="74"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="73"/>
-      <c r="F37" s="74"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="45"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="82"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="74"/>
-      <c r="D38" s="83"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="74"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="44"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="62" t="s">
+      <c r="A39" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="85" t="s">
-        <v>25</v>
+      <c r="B39" s="92"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="91" t="s">
+        <v>30</v>
       </c>
-      <c r="F39" s="86"/>
+      <c r="F39" s="92"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
@@ -13567,7 +18872,28 @@
       <c r="F43" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
+  <mergeCells count="29">
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A25:D26"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
@@ -13576,26 +18902,257 @@
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A39:D39"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="94">
+        <f>POWER(B4,3)</f>
+        <v>544.73799346299995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="G3" s="94" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="94">
+        <f>H2/6</f>
+        <v>90.789665577166659</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>8.1669999999999998</v>
+      </c>
+      <c r="G4" s="96" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="96">
+        <f>POWER(B4,2)</f>
+        <v>66.699888999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="96" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="96">
+        <f>H4/2</f>
+        <v>33.349944499999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="94"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="96" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="96">
+        <f>H5*B3</f>
+        <v>2.2344462814999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="94"/>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="96" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="96">
+        <f>POWER(H6,2)</f>
+        <v>4.9927501849091769</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="94"/>
+      <c r="B8" s="94"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="96" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="96">
+        <f>SQRT(H7)</f>
+        <v>2.2344462814999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="94"/>
+      <c r="B9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="95" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="96"/>
+      <c r="B11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="96"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="96"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="96"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="96"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="96"/>
+      <c r="B14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="96"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="96"/>
+      <c r="B15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="96"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="96"/>
+      <c r="B17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="96"/>
+      <c r="B18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="96"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="96"/>
+      <c r="B20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="96"/>
+      <c r="F20" s="96"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="96"/>
+      <c r="B21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="96"/>
+      <c r="F21" s="96"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="96"/>
+      <c r="B22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="96"/>
+      <c r="F22" s="96"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="96"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="96"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fizyka_Sprawka/Cw100_Kulki_Tuleje_Gestosc.xlsx
+++ b/Fizyka_Sprawka/Cw100_Kulki_Tuleje_Gestosc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="a)-Niepewnosc pomiarowa masy" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Kulka</t>
   </si>
@@ -150,13 +150,35 @@
   <si>
     <t>sqrt((POWER(d,2)/2 * u(x))^2)</t>
   </si>
+  <si>
+    <t>Tuleja Zew</t>
+  </si>
+  <si>
+    <t>Tuleja Wew</t>
+  </si>
+  <si>
+    <t>suma</t>
+  </si>
+  <si>
+    <t>1.89525/90=</t>
+  </si>
+  <si>
+    <t>0.022^2=</t>
+  </si>
+  <si>
+    <t>0.000484+0.000841=</t>
+  </si>
+  <si>
+    <t>sqrt(0.001325)=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000000000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -213,7 +235,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -364,17 +386,6 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -665,24 +676,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
@@ -702,13 +712,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -722,18 +732,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -743,34 +746,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -779,7 +779,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -788,7 +788,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -809,38 +845,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8042,7 +8053,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>67449</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>55978</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2168856" cy="689458"/>
@@ -8906,7 +8917,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>64313</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>10717</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2575472" cy="1076254"/>
@@ -9916,7 +9927,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>17367</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2442882" cy="778250"/>
@@ -10880,7 +10891,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>13138</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="298287" cy="354841"/>
@@ -11084,7 +11095,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>65661</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>20123</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="842015" cy="170377"/>
@@ -11243,7 +11254,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>13138</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="298287" cy="354841"/>
@@ -11445,540 +11456,9 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>65661</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>8917</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="961382" cy="222996"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="54" name="TextBox 53"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5791867" y="3146564"/>
-              <a:ext cx="961382" cy="222996"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:acc>
-                      <m:accPr>
-                        <m:chr m:val="̅"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:accPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑥</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:acc>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> −</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑤𝑦𝑠𝑜𝑘𝑜</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>ś</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑐𝑖</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="54" name="TextBox 53"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5791867" y="3146564"/>
-              <a:ext cx="961382" cy="222996"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑥</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> ̅</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>  −𝑤𝑦𝑠𝑜𝑘𝑜ś𝑐𝑖</a:t>
-              </a:r>
-              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>40813</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>8918</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1151883" cy="140169"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="55" name="TextBox 54"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5767019" y="3549977"/>
-              <a:ext cx="1151883" cy="140169"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:acc>
-                      <m:accPr>
-                        <m:chr m:val="̅"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:accPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑥</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:acc>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> −ś</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑟𝑒𝑑𝑛𝑖𝑐𝑦</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑧𝑒𝑤</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="55" name="TextBox 54"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5767019" y="3549977"/>
-              <a:ext cx="1151883" cy="140169"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑥</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> ̅</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>  −ś𝑟𝑒𝑑𝑛𝑖𝑐𝑦 𝑧𝑒𝑤</a:t>
-              </a:r>
-              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>68974</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>3949</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1132004" cy="186552"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="56" name="TextBox 55"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5795180" y="3343302"/>
-              <a:ext cx="1132004" cy="186552"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:acc>
-                      <m:accPr>
-                        <m:chr m:val="̅"/>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:accPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑥</m:t>
-                        </m:r>
-                      </m:e>
-                    </m:acc>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> −ś</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑟𝑒𝑑𝑛𝑖𝑐𝑦</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>𝑤𝑒𝑤</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="56" name="TextBox 55"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5795180" y="3343302"/>
-              <a:ext cx="1132004" cy="186552"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:noAutofit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑥</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t> ̅</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>  −ś𝑟𝑒𝑑𝑛𝑖𝑐𝑦 𝑤𝑒𝑤</a:t>
-              </a:r>
-              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
-            </a:p>
-            <a:p>
-              <a:endParaRPr lang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="298287" cy="354841"/>
@@ -12182,7 +11662,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>65661</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>8917</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="111248" cy="172227"/>
@@ -12317,7 +11797,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>65349</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>189752</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="151067" cy="172227"/>
@@ -12461,6 +11941,4151 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>67448</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>55978</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2433900" cy="689458"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="TextBox 23"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5881839" y="4338087"/>
+              <a:ext cx="2433900" cy="689458"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑢</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐴</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:nary>
+                            <m:naryPr>
+                              <m:chr m:val="∑"/>
+                              <m:limLoc m:val="subSup"/>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:naryPr>
+                            <m:sub>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="25"/>
+                                </m:rPr>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑖</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>=1</m:t>
+                              </m:r>
+                            </m:sub>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑛</m:t>
+                              </m:r>
+                            </m:sup>
+                            <m:e>
+                              <m:sSub>
+                                <m:sSubPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="en-US" sz="1100" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSubPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>(</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑥</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sub>
+                                  <m:r>
+                                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑖</m:t>
+                                  </m:r>
+                                </m:sub>
+                              </m:sSub>
+                            </m:e>
+                          </m:nary>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>− </m:t>
+                              </m:r>
+                              <m:acc>
+                                <m:accPr>
+                                  <m:chr m:val="̅"/>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:accPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑥</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:acc>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>)</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US">
+                              <a:effectLst/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑛</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑛</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>−1)</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                    </m:e>
+                  </m:rad>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>1.89525</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US"/>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US"/>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>10∗9</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.021058333</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>≈</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>0.0</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>22</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="24" name="TextBox 23"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5881839" y="4338087"/>
+              <a:ext cx="2433900" cy="689458"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢_𝐴 (𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√((</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^𝑛▒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>− 𝑥 ̅)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> "</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛(𝑛−1)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>))</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1.89525</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" /(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>10∗9))=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.021058333</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>≈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0.0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>22</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>64313</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>10717</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2575472" cy="1076254"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="TextBox 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2989849" y="6270003"/>
+              <a:ext cx="2575472" cy="1076254"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑢</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:d>
+                                <m:dPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:dPr>
+                                <m:e>
+                                  <m:sSub>
+                                    <m:sSubPr>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="en-US" sz="1100" i="1">
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:sSubPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="en-US" sz="1100" i="1">
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        </a:rPr>
+                                        <m:t>∆</m:t>
+                                      </m:r>
+                                    </m:e>
+                                    <m:sub>
+                                      <m:r>
+                                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        </a:rPr>
+                                        <m:t>𝑝</m:t>
+                                      </m:r>
+                                    </m:sub>
+                                  </m:sSub>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑥</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:d>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>3</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:d>
+                                <m:dPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:dPr>
+                                <m:e>
+                                  <m:sSub>
+                                    <m:sSubPr>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="en-US" sz="1100" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:sSubPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="en-US" sz="1100" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>∆</m:t>
+                                      </m:r>
+                                    </m:e>
+                                    <m:sub>
+                                      <m:r>
+                                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝑒</m:t>
+                                      </m:r>
+                                    </m:sub>
+                                  </m:sSub>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑥</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:d>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>3</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>(0.05)</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>3</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:d>
+                                <m:dPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:dPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>0</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:d>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>3</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                    </m:e>
+                  </m:rad>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> = </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>0.0025</m:t>
+                          </m:r>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>3</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                    </m:e>
+                  </m:rad>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>0.000833333</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:e>
+                  </m:rad>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.028867513</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≈</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>0.029</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="25" name="TextBox 24"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2989849" y="6270003"/>
+              <a:ext cx="2575472" cy="1076254"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢_𝐵 (𝑥)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑝 𝑥)^2/3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑒 𝑥)^2/3)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(0.05)〗^2/3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(0)^2/3)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.0025/3)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"0.000833333</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.028867513</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>0.029</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>17367</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2442882" cy="778250"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="TextBox 25"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2992771" y="7637367"/>
+              <a:ext cx="2442882" cy="778250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑢</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:sSubSup>
+                        <m:sSubSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑢</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝐴</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSubSup>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:d>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:sSubSup>
+                        <m:sSubSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑢</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝐵</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSubSup>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:d>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>0.0</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>22</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US">
+                              <a:effectLst/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>0.029</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>0.000484</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>0.000841</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>0.001325</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t>  </m:t>
+                      </m:r>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:nor/>
+                    </m:rPr>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>0.036400549</m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:nor/>
+                    </m:rPr>
+                    <a:rPr lang="en-US"/>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:nor/>
+                    </m:rPr>
+                    <a:rPr lang="en-US"/>
+                    <m:t> </m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>≈</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>0.0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>37</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="26" name="TextBox 25"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2992771" y="7637367"/>
+              <a:ext cx="2442882" cy="778250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢(𝑥)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐴^2 (𝑥)+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑢</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵^2 (𝑥) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>22</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" 〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖0.029〗^2 )=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.000484</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" +</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"0.000841</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.001325</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.036400549</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>≈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>0.0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>37</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>829235</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1151883" cy="140169"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="TextBox 31"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1255059" y="2342030"/>
+              <a:ext cx="1151883" cy="140169"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="32" name="TextBox 31"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1255059" y="2342030"/>
+              <a:ext cx="1151883" cy="140169"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>186018</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>17931</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="329453" cy="138952"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="TextBox 35"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="186018" y="2337549"/>
+              <a:ext cx="329453" cy="138952"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="36" name="TextBox 35"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="186018" y="2337549"/>
+              <a:ext cx="329453" cy="138952"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>25004</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1190</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1435136" cy="175369"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4180285" y="203596"/>
+              <a:ext cx="1435136" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"d_wew</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>"</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>− </m:t>
+                      </m:r>
+                      <m:acc>
+                        <m:accPr>
+                          <m:chr m:val="̅"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:accPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:acc>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>[</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑚𝑚</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>]</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4180285" y="203596"/>
+              <a:ext cx="1435136" cy="175369"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"d_wew</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"(𝑥_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>− 𝑥 ̅)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> [𝑚𝑚]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>67727</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>192390</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1398524" cy="179665"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="38" name="TextBox 37"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7093815" y="192390"/>
+              <a:ext cx="1398524" cy="179665"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"d_zew</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>"</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑖</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>− </m:t>
+                      </m:r>
+                      <m:acc>
+                        <m:accPr>
+                          <m:chr m:val="̅"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:accPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:acc>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>[</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑚𝑚</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>]</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="38" name="TextBox 37"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7093815" y="192390"/>
+              <a:ext cx="1398524" cy="179665"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"d_zew</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"(𝑥_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>− 𝑥 ̅)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> [𝑚𝑚]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>189752</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="TextBox 38"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8804413" y="4273078"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12474,8 +16099,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="842015" cy="170377"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -12559,7 +16184,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -12633,8 +16258,8 @@
       <xdr:rowOff>23192</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2657779" cy="318036"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -12670,6 +16295,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -12763,7 +16389,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12776,7 +16402,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12790,7 +16416,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12804,7 +16430,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -12830,7 +16456,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12912,7 +16538,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12940,7 +16566,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12953,7 +16579,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12967,7 +16593,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -12981,7 +16607,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13079,7 +16705,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13191,7 +16817,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -13388,8 +17014,8 @@
       <xdr:rowOff>41414</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3464346" cy="318036"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -13425,6 +17051,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -13561,7 +17188,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13574,7 +17201,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13588,7 +17215,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13602,7 +17229,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13616,7 +17243,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13643,7 +17270,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13657,7 +17284,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13671,7 +17298,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13684,7 +17311,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13698,7 +17325,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -13712,7 +17339,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -13728,19 +17355,7 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>544.73799</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t>=</m:t>
+                      <m:t>544.73799=90.789666</m:t>
                     </m:r>
                     <m:r>
                       <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -13752,18 +17367,6 @@
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t>90.789666</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
-                        <a:ea typeface="+mn-ea"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
                       <m:t>𝜋</m:t>
                     </m:r>
                     <m:r>
@@ -13772,23 +17375,11 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
-                      <m:t> </m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                        <a:solidFill>
-                          <a:schemeClr val="tx1"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:cs typeface="+mn-cs"/>
-                      </a:rPr>
-                      <m:t> </m:t>
+                      <m:t>  </m:t>
                     </m:r>
                   </m:oMath>
                 </m:oMathPara>
@@ -13798,7 +17389,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -13976,8 +17567,8 @@
       <xdr:rowOff>75461</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1483062" cy="578362"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -14013,6 +17604,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -14099,7 +17691,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -14113,7 +17705,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -14126,7 +17718,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -14138,7 +17730,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -14152,7 +17744,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -14166,7 +17758,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -14179,7 +17771,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -14193,7 +17785,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -14209,7 +17801,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -14221,7 +17813,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -14235,7 +17827,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -14248,7 +17840,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -14262,7 +17854,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -14276,7 +17868,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -14320,7 +17912,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -14564,8 +18156,8 @@
       <xdr:rowOff>5442</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="312842" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -14601,6 +18193,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -14613,7 +18206,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -14627,7 +18220,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14640,7 +18233,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -14656,7 +18249,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -14720,8 +18313,8 @@
       <xdr:rowOff>41041</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2083840" cy="247055"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -14767,7 +18360,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -14780,7 +18373,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -14792,7 +18385,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -14806,7 +18399,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -14842,7 +18435,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -14855,7 +18448,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -14867,7 +18460,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -14881,7 +18474,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -14925,7 +18518,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -14938,7 +18531,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -14952,7 +18545,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -14980,7 +18573,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -14993,7 +18586,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15007,7 +18600,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15021,7 +18614,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -15035,7 +18628,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15048,7 +18641,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15062,7 +18655,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15090,7 +18683,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15103,7 +18696,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15117,7 +18710,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15131,7 +18724,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -15145,7 +18738,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15170,7 +18763,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15212,7 +18805,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15225,7 +18818,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15253,7 +18846,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -15267,7 +18860,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15280,7 +18873,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15294,7 +18887,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15325,7 +18918,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -15649,8 +19242,8 @@
       <xdr:rowOff>38781</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2784231" cy="1022890"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -15768,7 +19361,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -15782,7 +19375,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -15795,7 +19388,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -15807,7 +19400,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -15821,7 +19414,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -15835,7 +19428,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -15848,7 +19441,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -15862,7 +19455,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -15878,7 +19471,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -15890,7 +19483,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -15904,7 +19497,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -15917,7 +19510,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -15931,7 +19524,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -15945,7 +19538,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -15990,7 +19583,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -16006,7 +19599,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -16019,7 +19612,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -16033,7 +19626,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -16046,7 +19639,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -16060,7 +19653,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -16074,7 +19667,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -16088,7 +19681,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -16101,7 +19694,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -16115,7 +19708,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -16141,7 +19734,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -16153,7 +19746,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -16177,7 +19770,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -16191,7 +19784,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -16207,7 +19800,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -16222,7 +19815,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -16238,7 +19831,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -16251,7 +19844,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -16278,7 +19871,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -16320,7 +19913,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -16354,7 +19947,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -16368,7 +19961,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -16384,7 +19977,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -16399,7 +19992,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -16415,7 +20008,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -16428,7 +20021,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -16462,7 +20055,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -16476,7 +20069,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -16507,7 +20100,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -16592,7 +20185,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -17226,8 +20819,8 @@
       <xdr:rowOff>56366</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2155847" cy="243656"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -17273,7 +20866,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17286,7 +20879,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17314,7 +20907,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -17328,7 +20921,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17341,7 +20934,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17355,7 +20948,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17399,7 +20992,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17412,7 +21005,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17426,7 +21019,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -17440,7 +21033,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -17496,7 +21089,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -17520,7 +21113,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -17990,7 +21583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -18009,39 +21602,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="74" t="s">
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
@@ -18050,75 +21643,75 @@
       <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="62"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="74"/>
-      <c r="H3" s="74"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22">
+      <c r="B4" s="21">
         <v>0.72</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="75" t="s">
+      <c r="F4" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="77"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="74"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>8.24</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="78" t="s">
+      <c r="F5" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="59"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="77"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="70">
+      <c r="B6" s="23"/>
+      <c r="C6" s="66">
         <v>0.01</v>
       </c>
-      <c r="D6" s="71"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="64"/>
-      <c r="H6" s="73"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="70"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="60"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -18139,12 +21732,12 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="62"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -18153,18 +21746,18 @@
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="59"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="76"/>
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -18185,12 +21778,12 @@
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="61"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -18211,18 +21804,18 @@
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="63"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="79"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="8"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="62"/>
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="60"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -18243,12 +21836,12 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="60" t="s">
+      <c r="A27" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="62"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
@@ -18270,6 +21863,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="J1:Q1"/>
@@ -18285,11 +21883,6 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18299,24 +21892,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:D23"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.7109375" customWidth="1"/>
     <col min="8" max="8" width="26.140625" customWidth="1"/>
     <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="7.42578125" customWidth="1"/>
+    <col min="10" max="10" width="16.7109375" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="6.85546875" customWidth="1"/>
     <col min="13" max="13" width="8.5703125" customWidth="1"/>
@@ -18326,19 +21919,19 @@
     <col min="17" max="17" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="60" t="s">
+      <c r="B1" s="60"/>
+      <c r="C1" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="60"/>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
@@ -18354,11 +21947,13 @@
       <c r="E2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="15" t="s">
         <v>13</v>
       </c>
+      <c r="H2" s="15"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -18374,11 +21969,19 @@
       <c r="E3" s="12">
         <v>12</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="12">
+        <f>POWER(E3-E13,2)</f>
+        <v>4.622499999999994E-2</v>
+      </c>
+      <c r="G3" s="13">
         <v>15.18</v>
       </c>
+      <c r="H3" s="13">
+        <f>POWER(G3-G13,2)</f>
+        <v>0.45968400000000109</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -18394,11 +21997,19 @@
       <c r="E4" s="19">
         <v>11.95</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="19">
+        <f>POWER(E4-E13,2)</f>
+        <v>7.0225000000000301E-2</v>
+      </c>
+      <c r="G4" s="5">
         <v>15.75</v>
       </c>
+      <c r="H4" s="5">
+        <f>POWER(G4-G13,2)</f>
+        <v>1.1664000000000117E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -18414,11 +22025,19 @@
       <c r="E5" s="6">
         <v>12</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
+        <f>POWER(E5-E13,2)</f>
+        <v>4.622499999999994E-2</v>
+      </c>
+      <c r="G5" s="5">
         <v>15.8</v>
       </c>
+      <c r="H5" s="5">
+        <f>POWER(G5-G13,2)</f>
+        <v>3.3639999999999803E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -18434,11 +22053,19 @@
       <c r="E6" s="19">
         <v>12</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
+        <f>POWER(E6-E13,2)</f>
+        <v>4.622499999999994E-2</v>
+      </c>
+      <c r="G6" s="5">
         <v>15.85</v>
       </c>
+      <c r="H6" s="96">
+        <f>POWER(G6-G13,2)</f>
+        <v>6.4000000000014322E-5</v>
+      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -18454,11 +22081,19 @@
       <c r="E7" s="19">
         <v>12</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
+        <f>POWER(E7-E13,2)</f>
+        <v>4.622499999999994E-2</v>
+      </c>
+      <c r="G7" s="5">
         <v>15.8</v>
       </c>
+      <c r="H7" s="5">
+        <f>POWER(G7-G13,2)</f>
+        <v>3.3639999999999803E-3</v>
+      </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -18474,11 +22109,19 @@
       <c r="E8" s="19">
         <v>12.75</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="19">
+        <f>POWER(E8-E13,2)</f>
+        <v>0.28622500000000017</v>
+      </c>
+      <c r="G8" s="5">
         <v>16.100000000000001</v>
       </c>
+      <c r="H8" s="5">
+        <f>POWER(G8-G13,2)</f>
+        <v>5.8564000000000428E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -18494,11 +22137,19 @@
       <c r="E9" s="19">
         <v>12.9</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="19">
+        <f>POWER(E9-E13,2)</f>
+        <v>0.46922500000000067</v>
+      </c>
+      <c r="G9" s="5">
         <v>16</v>
       </c>
+      <c r="H9" s="5">
+        <f>POWER(G9-G13,2)</f>
+        <v>2.0163999999999845E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -18514,11 +22165,19 @@
       <c r="E10" s="19">
         <v>11.8</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="19">
+        <f>POWER(E10-E13,2)</f>
+        <v>0.1722249999999993</v>
+      </c>
+      <c r="G10" s="5">
         <v>16</v>
       </c>
+      <c r="H10" s="5">
+        <f>POWER(G10-G13,2)</f>
+        <v>2.0163999999999845E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -18534,11 +22193,19 @@
       <c r="E11" s="19">
         <v>11.8</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="19">
+        <f>POWER(E11-E13,2)</f>
+        <v>0.1722249999999993</v>
+      </c>
+      <c r="G11" s="5">
         <v>16</v>
       </c>
+      <c r="H11" s="5">
+        <f>POWER(G11-G13,2)</f>
+        <v>2.0163999999999845E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -18554,354 +22221,443 @@
       <c r="E12" s="8">
         <v>12.95</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
+        <f>POWER(E12-E13,2)</f>
+        <v>0.54022499999999918</v>
+      </c>
+      <c r="G12" s="10">
         <v>16.100000000000001</v>
       </c>
+      <c r="H12" s="10">
+        <f>POWER(G12-G13,2)</f>
+        <v>5.8564000000000428E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="60" t="s">
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8">
+        <f>AVERAGE(B3:B12)</f>
+        <v>8.166999999999998</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8">
+        <f>AVERAGE(D3:D12)</f>
+        <v>34.169999999999995</v>
+      </c>
+      <c r="E13" s="8">
+        <f>AVERAGE(E3:E12)</f>
+        <v>12.215</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="10">
+        <f>AVERAGE(G3:G12)</f>
+        <v>15.858000000000001</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8">
+        <f>SUM(F3:F12)</f>
+        <v>1.8952499999999985</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="10">
+        <f>SUM(H3:H12)</f>
+        <v>0.65576000000000156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="60" t="s">
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="60" t="s">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="62"/>
+      <c r="F16" s="60"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="79"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="79" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="88"/>
+      <c r="B17" s="73"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="77"/>
+      <c r="F17" s="74"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="57" t="s">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="78"/>
+      <c r="B18" s="76"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="59"/>
+      <c r="F18" s="77"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="82" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="83"/>
-      <c r="C17" s="83"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="57" t="s">
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="59"/>
+      <c r="F19" s="77"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
-      <c r="B18" s="64"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="80" t="s">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="79"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="89" t="s">
         <v>19</v>
       </c>
-      <c r="F18" s="81"/>
+      <c r="F20" s="90"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60" t="s">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="H21" s="71"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="56"/>
-      <c r="E20" s="74" t="s">
-        <v>15</v>
+      <c r="B22" s="18"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="71" t="s">
+        <v>41</v>
       </c>
-      <c r="F20" s="74"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="86"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="60" t="s">
+    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="62"/>
-      <c r="C21" s="60" t="s">
+      <c r="B23" s="60"/>
+      <c r="C23" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="28" t="s">
+      <c r="D23" s="60"/>
+      <c r="E23" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F23" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="8">
+        <f>1.89525/90</f>
+        <v>2.1058333333333335E-2</v>
+      </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="79"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="79">
+    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="88"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="88">
         <v>0.05</v>
       </c>
-      <c r="D22" s="77"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="5">
+      <c r="D24" s="74"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="5">
         <v>0.05</v>
       </c>
+      <c r="G24" s="39"/>
+      <c r="H24" s="40"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="59"/>
-      <c r="C23" s="57">
+    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="78"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78">
         <v>8.1669999999999998</v>
       </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="5">
-        <v>34.169999999999995</v>
+      <c r="D25" s="77"/>
+      <c r="E25" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="F25" s="86"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="40"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="70"/>
+      <c r="C26" s="79">
+        <v>10</v>
+      </c>
+      <c r="D26" s="70"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="53"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="39"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="45"/>
+      <c r="H28" s="46"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="39"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="29"/>
+      <c r="G29" s="48"/>
+      <c r="H29" s="49"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="39"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="53"/>
+      <c r="G30" s="48"/>
+      <c r="H30" s="49"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="30"/>
+      <c r="B31" s="29"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="28"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="48"/>
+      <c r="H31" s="49"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="83"/>
+      <c r="C32" s="83"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="43"/>
+    </row>
+    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="45"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="48"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="43"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="48"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="H34" s="81"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="48"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="32"/>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J36">
+        <f>0.022^2</f>
+        <v>4.8399999999999995E-4</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="63" t="s">
-        <v>17</v>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="42"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="80" t="s">
+        <v>30</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="63">
-        <v>10</v>
+      <c r="F37" s="81"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="32"/>
+      <c r="I37" t="s">
+        <v>46</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="5">
-        <v>12.215</v>
+      <c r="J37">
+        <f>0.000484+0.000841</f>
+        <v>1.325E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="5">
-        <v>15.858000000000001</v>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="51"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="34"/>
+      <c r="I38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38">
+        <f>SQRT(0.001325)</f>
+        <v>3.6400549446402593E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="63"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="5">
-        <f>A12</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="88" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="89"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="90"/>
-      <c r="E27" s="88" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="89"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="40"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="40"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="41"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="40"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="30"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="85" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
-      <c r="E32" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="54"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="50"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="50"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="50"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="43"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="44"/>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="52"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="44"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="44"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="91" t="s">
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="91" t="s">
-        <v>30</v>
-      </c>
-      <c r="F39" s="92"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="32"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="39"/>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="37"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="32"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="36"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="36"/>
-      <c r="F41" s="33"/>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="35"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="36"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="36"/>
-      <c r="F42" s="33"/>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="35"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="36"/>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="34"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="35"/>
+    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="33"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E39:F39"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="A21:B21"/>
+  <mergeCells count="31">
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -18913,8 +22669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H24" sqref="H23:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18933,10 +22689,10 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="56" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="94">
+      <c r="H2" s="56">
         <f>POWER(B4,3)</f>
         <v>544.73799346299995</v>
       </c>
@@ -18945,10 +22701,10 @@
       <c r="B3">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="G3" s="94" t="s">
+      <c r="G3" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="94">
+      <c r="H3" s="56">
         <f>H2/6</f>
         <v>90.789665577166659</v>
       </c>
@@ -18957,83 +22713,83 @@
       <c r="B4">
         <v>8.1669999999999998</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="H4" s="96">
+      <c r="H4" s="57">
         <f>POWER(B4,2)</f>
         <v>66.699888999999999</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="93" t="s">
+      <c r="A5" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="96" t="s">
+      <c r="B5" s="94"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="96">
+      <c r="H5" s="57">
         <f>H4/2</f>
         <v>33.349944499999999</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="94"/>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="96" t="s">
+      <c r="A6" s="56"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="H6" s="96">
+      <c r="H6" s="57">
         <f>H5*B3</f>
         <v>2.2344462814999999</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="94"/>
-      <c r="B7" s="94"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="96" t="s">
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="96">
+      <c r="H7" s="57">
         <f>POWER(H6,2)</f>
         <v>4.9927501849091769</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="94"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="96" t="s">
+      <c r="A8" s="56"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="H8" s="96">
+      <c r="H8" s="57">
         <f>SQRT(H7)</f>
         <v>2.2344462814999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="94"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
+      <c r="A9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="95" t="s">
@@ -19041,113 +22797,113 @@
       </c>
       <c r="B10" s="95"/>
       <c r="C10" s="95"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="96"/>
-      <c r="B11" s="96"/>
-      <c r="C11" s="96"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="96"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="96"/>
-      <c r="B12" s="96"/>
-      <c r="C12" s="96"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="96"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="96"/>
-      <c r="B13" s="96"/>
-      <c r="C13" s="96"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="96"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="96"/>
-      <c r="B14" s="96"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="96"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="96"/>
-      <c r="B15" s="96"/>
-      <c r="C15" s="96"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="96"/>
-      <c r="B16" s="96"/>
-      <c r="C16" s="96"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="96"/>
-      <c r="F16" s="96"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="96"/>
-      <c r="B17" s="96"/>
-      <c r="C17" s="96"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="96"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="96"/>
-      <c r="B18" s="96"/>
-      <c r="C18" s="96"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="96"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="96"/>
-      <c r="B19" s="96"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="96"/>
-      <c r="B20" s="96"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="96"/>
-      <c r="F20" s="96"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="96"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="96"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="96"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="96"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="96"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="96"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="96"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Fizyka_Sprawka/Cw100_Kulki_Tuleje_Gestosc.xlsx
+++ b/Fizyka_Sprawka/Cw100_Kulki_Tuleje_Gestosc.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Kulka</t>
   </si>
@@ -171,6 +171,27 @@
   <si>
     <t>sqrt(0.001325)=</t>
   </si>
+  <si>
+    <t>Tuleja Wysokosc</t>
+  </si>
+  <si>
+    <t>0.206/90=</t>
+  </si>
+  <si>
+    <t>0.0023^2=</t>
+  </si>
+  <si>
+    <t>0.00000529+0.000841=</t>
+  </si>
+  <si>
+    <t>sqrt(0.00084629)=</t>
+  </si>
+  <si>
+    <t>Całkowita Niep. Stand.- Obliczenie - Wys</t>
+  </si>
+  <si>
+    <t>Całkowita Niep. Stand.- Obliczenie - Wew</t>
+  </si>
 </sst>
 </file>
 
@@ -178,7 +199,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.0000000000"/>
-    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -737,6 +758,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -744,6 +775,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -770,9 +807,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -791,40 +825,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -845,13 +855,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9931,8 +9952,8 @@
       <xdr:rowOff>17367</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2442882" cy="778250"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="50" name="TextBox 49"/>
@@ -10208,7 +10229,31 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>0.86</m:t>
+                            <m:t>0.</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>0</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>86</m:t>
                           </m:r>
                         </m:e>
                         <m:sup>
@@ -10489,7 +10534,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="50" name="TextBox 49"/>
@@ -10525,7 +10570,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -10626,7 +10670,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>0.86〗^2</a:t>
+                <a:t>0.</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -10638,6 +10682,30 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
+                <a:t>0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>86〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t>+</a:t>
               </a:r>
               <a:r>
@@ -10674,19 +10742,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>0.007396</a:t>
+                <a:t>"0.007396</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
@@ -10772,7 +10828,41 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>"</a:t>
+                <a:t>"0.008237</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -10780,73 +10870,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>0.008237</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" i="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" i="0"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>" </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>0.09075792</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"0.09075792</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0">
@@ -11949,8 +11977,8 @@
       <xdr:rowOff>55978</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2433900" cy="689458"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23"/>
@@ -12357,14 +12385,7 @@
                               <m:nor/>
                             </m:rPr>
                             <a:rPr lang="en-US"/>
-                            <m:t> </m:t>
-                          </m:r>
-                          <m:r>
-                            <m:rPr>
-                              <m:nor/>
-                            </m:rPr>
-                            <a:rPr lang="en-US"/>
-                            <m:t> </m:t>
+                            <m:t>  </m:t>
                           </m:r>
                           <m:r>
                             <m:rPr>
@@ -12459,7 +12480,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="24" name="TextBox 23"/>
@@ -12862,8 +12883,8 @@
       <xdr:rowOff>10717</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2575472" cy="1076254"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24"/>
@@ -13571,7 +13592,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24"/>
@@ -13872,8 +13893,8 @@
       <xdr:rowOff>17367</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2442882" cy="778250"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25"/>
@@ -14145,7 +14166,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -14157,7 +14178,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -14294,14 +14315,7 @@
                           <m:nor/>
                         </m:rPr>
                         <a:rPr lang="en-US"/>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <m:rPr>
-                          <m:nor/>
-                        </m:rPr>
-                        <a:rPr lang="en-US"/>
-                        <m:t> </m:t>
+                        <m:t>  </m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -14388,14 +14402,7 @@
                           <m:nor/>
                         </m:rPr>
                         <a:rPr lang="en-US"/>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <m:rPr>
-                          <m:nor/>
-                        </m:rPr>
-                        <a:rPr lang="en-US"/>
-                        <m:t>  </m:t>
+                        <m:t>   </m:t>
                       </m:r>
                     </m:e>
                   </m:rad>
@@ -14431,14 +14438,7 @@
                       <m:nor/>
                     </m:rPr>
                     <a:rPr lang="en-US"/>
-                    <m:t> </m:t>
-                  </m:r>
-                  <m:r>
-                    <m:rPr>
-                      <m:nor/>
-                    </m:rPr>
-                    <a:rPr lang="en-US"/>
-                    <m:t> </m:t>
+                    <m:t>  </m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
@@ -14477,7 +14477,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="26" name="TextBox 25"/>
@@ -14939,8 +14939,8 @@
       <xdr:rowOff>22412</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1151883" cy="140169"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31"/>
@@ -15021,7 +15021,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31"/>
@@ -15098,8 +15098,8 @@
       <xdr:rowOff>17931</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="329453" cy="138952"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35"/>
@@ -15180,7 +15180,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="36" name="TextBox 35"/>
@@ -15251,14 +15251,14 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>25004</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>1190</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1435136" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -15383,7 +15383,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15396,7 +15396,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15411,7 +15411,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -15424,7 +15424,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -15438,7 +15438,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15452,7 +15452,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15503,7 +15503,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -15646,9 +15646,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>67727</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>192390</xdr:rowOff>
+      <xdr:colOff>1672323</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9217</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1398524" cy="179665"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -15660,7 +15660,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7093815" y="192390"/>
+              <a:off x="8728150" y="207044"/>
               <a:ext cx="1398524" cy="179665"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -15777,7 +15777,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15790,7 +15790,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15805,7 +15805,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -15818,7 +15818,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -15832,7 +15832,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15846,7 +15846,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -15905,7 +15905,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="7093815" y="192390"/>
+              <a:off x="8728150" y="207044"/>
               <a:ext cx="1398524" cy="179665"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -15963,7 +15963,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15975,7 +15975,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15987,7 +15987,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -15999,7 +15999,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -16011,23 +16011,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>2</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> [𝑚𝑚]</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2 [𝑚𝑚]</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -16053,6 +16041,3567 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="8804413" y="4273078"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>41032</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>194896</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1129604" cy="179665"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2964474" y="194896"/>
+              <a:ext cx="1129604" cy="179665"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>"</m:t>
+                    </m:r>
+                    <m:r>
+                      <m:rPr>
+                        <m:nor/>
+                      </m:rPr>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>h</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>"</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>(</m:t>
+                    </m:r>
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑖</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:sSup>
+                      <m:sSupPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSupPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>− </m:t>
+                        </m:r>
+                        <m:acc>
+                          <m:accPr>
+                            <m:chr m:val="̅"/>
+                            <m:ctrlPr>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:accPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="+mn-lt"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑥</m:t>
+                            </m:r>
+                          </m:e>
+                        </m:acc>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>)</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="+mn-lt"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>2</m:t>
+                        </m:r>
+                      </m:sup>
+                    </m:sSup>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>[</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑚𝑚</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>]</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2964474" y="194896"/>
+              <a:ext cx="1129604" cy="179665"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>\"h"(𝑥_𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>− 𝑥 ̅)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2 [𝑚𝑚]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>189752</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="TextBox 29"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9062357" y="4353538"/>
+          <a:ext cx="65" cy="172227"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67448</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>55978</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2433900" cy="689458"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="TextBox 30"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5891305" y="4423871"/>
+              <a:ext cx="2433900" cy="689458"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑢</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐴</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:nary>
+                            <m:naryPr>
+                              <m:chr m:val="∑"/>
+                              <m:limLoc m:val="subSup"/>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:naryPr>
+                            <m:sub>
+                              <m:r>
+                                <m:rPr>
+                                  <m:brk m:alnAt="25"/>
+                                </m:rPr>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑖</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>=1</m:t>
+                              </m:r>
+                            </m:sub>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑛</m:t>
+                              </m:r>
+                            </m:sup>
+                            <m:e>
+                              <m:sSub>
+                                <m:sSubPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="en-US" sz="1100" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSubPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>(</m:t>
+                                  </m:r>
+                                  <m:r>
+                                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑥</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sub>
+                                  <m:r>
+                                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑖</m:t>
+                                  </m:r>
+                                </m:sub>
+                              </m:sSub>
+                            </m:e>
+                          </m:nary>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>− </m:t>
+                              </m:r>
+                              <m:acc>
+                                <m:accPr>
+                                  <m:chr m:val="̅"/>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:accPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑥</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:acc>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>)</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US">
+                              <a:effectLst/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑛</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑛</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>−1)</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                    </m:e>
+                  </m:rad>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>0.206</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US"/>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US"/>
+                            <m:t>  </m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>10∗9</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.002288889</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>≈</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>0.0</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>023</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="31" name="TextBox 30"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5891305" y="4423871"/>
+              <a:ext cx="2433900" cy="689458"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢_𝐴 (𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√((</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∑2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖=1</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>^𝑛▒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑖 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>− 𝑥 ̅)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> "</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑛(𝑛−1)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>))</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.206</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" /(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>10∗9))=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.002288889</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>≈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>0.0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>023</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>64313</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>10717</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2575472" cy="1076254"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="TextBox 36"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5888170" y="5399146"/>
+              <a:ext cx="2575472" cy="1076254"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑢</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐵</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:d>
+                                <m:dPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:dPr>
+                                <m:e>
+                                  <m:sSub>
+                                    <m:sSubPr>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="en-US" sz="1100" i="1">
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:sSubPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="en-US" sz="1100" i="1">
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        </a:rPr>
+                                        <m:t>∆</m:t>
+                                      </m:r>
+                                    </m:e>
+                                    <m:sub>
+                                      <m:r>
+                                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                        </a:rPr>
+                                        <m:t>𝑝</m:t>
+                                      </m:r>
+                                    </m:sub>
+                                  </m:sSub>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    </a:rPr>
+                                    <m:t>𝑥</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:d>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>3</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:d>
+                                <m:dPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:dPr>
+                                <m:e>
+                                  <m:sSub>
+                                    <m:sSubPr>
+                                      <m:ctrlPr>
+                                        <a:rPr lang="en-US" sz="1100" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                      </m:ctrlPr>
+                                    </m:sSubPr>
+                                    <m:e>
+                                      <m:r>
+                                        <a:rPr lang="en-US" sz="1100" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>∆</m:t>
+                                      </m:r>
+                                    </m:e>
+                                    <m:sub>
+                                      <m:r>
+                                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                          <a:solidFill>
+                                            <a:schemeClr val="tx1"/>
+                                          </a:solidFill>
+                                          <a:effectLst/>
+                                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                          <a:ea typeface="+mn-ea"/>
+                                          <a:cs typeface="+mn-cs"/>
+                                        </a:rPr>
+                                        <m:t>𝑒</m:t>
+                                      </m:r>
+                                    </m:sub>
+                                  </m:sSub>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑥</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:d>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>3</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>(0.05)</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>3</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:d>
+                                <m:dPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:dPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>0</m:t>
+                                  </m:r>
+                                </m:e>
+                              </m:d>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>3</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                    </m:e>
+                  </m:rad>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> = </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:f>
+                        <m:fPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:fPr>
+                        <m:num>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>0.0025</m:t>
+                          </m:r>
+                        </m:num>
+                        <m:den>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>3</m:t>
+                          </m:r>
+                        </m:den>
+                      </m:f>
+                    </m:e>
+                  </m:rad>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>0.000833333</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:e>
+                  </m:rad>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.028867513</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1" u="none" strike="noStrike" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≈</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>0.029</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="37" name="TextBox 36"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5888170" y="5399146"/>
+              <a:ext cx="2575472" cy="1076254"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢_𝐵 (𝑥)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑝 𝑥)^2/3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>∆_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑒 𝑥)^2/3)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(0.05)〗^2/3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(0)^2/3)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.0025/3)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"0.000833333</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> = </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.028867513</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>0.029</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>17367</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2442882" cy="778250"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="TextBox 39"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5891092" y="6766510"/>
+              <a:ext cx="2442882" cy="778250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑢</m:t>
+                  </m:r>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑥</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:sSubSup>
+                        <m:sSubSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑢</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝐴</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSubSup>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:d>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:sSubSup>
+                        <m:sSubSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSubSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑢</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sub>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝐵</m:t>
+                          </m:r>
+                        </m:sub>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSubSup>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑥</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:d>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>0.0</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>02</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>3</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US">
+                              <a:effectLst/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>0.029</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>0.00000529</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t>  </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>0.000841</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>0.00084629</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t>   </m:t>
+                      </m:r>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:nor/>
+                    </m:rPr>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>0.029091064</m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:nor/>
+                    </m:rPr>
+                    <a:rPr lang="en-US"/>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:nor/>
+                    </m:rPr>
+                    <a:rPr lang="en-US"/>
+                    <m:t>  </m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>≈</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>0.0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>29</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="40" name="TextBox 39"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5891092" y="6766510"/>
+              <a:ext cx="2442882" cy="778250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢(𝑥)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝐴^2 (𝑥)+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑢</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝐵^2 (𝑥) </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>)=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>02"3</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖0.029〗^2 )=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.00000529</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" +</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"0.000841</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.00084629</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t>   </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>0.029091064</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>≈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>0.0</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>29</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>189752</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="65" cy="172227"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="TextBox 41"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10409464" y="4353538"/>
           <a:ext cx="65" cy="172227"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -21602,39 +25151,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
-      <c r="P1" s="61"/>
-      <c r="Q1" s="61"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
@@ -21643,16 +25192,16 @@
       <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="58"/>
-      <c r="D3" s="60"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="71" t="s">
+      <c r="F3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -21662,14 +25211,14 @@
       <c r="B4" s="21">
         <v>0.72</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="72" t="s">
+      <c r="F4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="73"/>
-      <c r="H4" s="74"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -21678,40 +25227,40 @@
       <c r="B5" s="22">
         <v>8.24</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="75" t="s">
+      <c r="F5" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="77"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="23"/>
-      <c r="C6" s="66">
+      <c r="C6" s="72">
         <v>0.01</v>
       </c>
-      <c r="D6" s="67"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="75"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="60"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -21732,12 +25281,12 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -21746,18 +25295,18 @@
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="58" t="s">
+      <c r="A13" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="78"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -21778,12 +25327,12 @@
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="58" t="s">
+      <c r="A18" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -21804,18 +25353,18 @@
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="79"/>
-      <c r="B22" s="69"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="8"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58" t="s">
+      <c r="A23" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="60"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -21836,12 +25385,12 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="58" t="s">
+      <c r="A27" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="60"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
@@ -21863,11 +25412,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="J1:Q1"/>
@@ -21883,6 +25427,11 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -21892,10 +25441,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21906,32 +25455,31 @@
     <col min="4" max="4" width="15" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
     <col min="8" max="8" width="26.140625" customWidth="1"/>
     <col min="9" max="9" width="20.140625" customWidth="1"/>
     <col min="10" max="10" width="16.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.140625" customWidth="1"/>
+    <col min="11" max="12" width="25.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
     <col min="15" max="15" width="10.85546875" customWidth="1"/>
     <col min="16" max="16" width="11.140625" customWidth="1"/>
     <col min="17" max="17" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="58" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="60"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
         <v>10</v>
       </c>
@@ -21944,16 +25492,17 @@
       <c r="D2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="15"/>
+      <c r="H2" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -21966,22 +25515,26 @@
       <c r="D3" s="17">
         <v>34.15</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="17">
+        <f>POWER(D3-34.17,2)</f>
+        <v>4.0000000000012508E-4</v>
+      </c>
+      <c r="F3" s="12">
         <v>12</v>
       </c>
-      <c r="F3" s="12">
-        <f>POWER(E3-E13,2)</f>
+      <c r="G3" s="12">
+        <f>POWER(F3-F13,2)</f>
         <v>4.622499999999994E-2</v>
       </c>
-      <c r="G3" s="13">
+      <c r="H3" s="13">
         <v>15.18</v>
       </c>
-      <c r="H3" s="13">
-        <f>POWER(G3-G13,2)</f>
+      <c r="I3" s="13">
+        <f>POWER(H3-H13,2)</f>
         <v>0.45968400000000109</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -21994,22 +25547,26 @@
       <c r="D4" s="6">
         <v>34</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="6">
+        <f>POWER(D4-34.17,2)</f>
+        <v>2.8900000000000581E-2</v>
+      </c>
+      <c r="F4" s="19">
         <v>11.95</v>
       </c>
-      <c r="F4" s="19">
-        <f>POWER(E4-E13,2)</f>
+      <c r="G4" s="19">
+        <f>POWER(F4-F13,2)</f>
         <v>7.0225000000000301E-2</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H4" s="5">
         <v>15.75</v>
       </c>
-      <c r="H4" s="5">
-        <f>POWER(G4-G13,2)</f>
+      <c r="I4" s="5">
+        <f>POWER(H4-H13,2)</f>
         <v>1.1664000000000117E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -22023,21 +25580,25 @@
         <v>34.1</v>
       </c>
       <c r="E5" s="6">
+        <f>POWER(D5-34.17,2)</f>
+        <v>4.9000000000000397E-3</v>
+      </c>
+      <c r="F5" s="6">
         <v>12</v>
       </c>
-      <c r="F5" s="6">
-        <f>POWER(E5-E13,2)</f>
+      <c r="G5" s="6">
+        <f>POWER(F5-F13,2)</f>
         <v>4.622499999999994E-2</v>
       </c>
-      <c r="G5" s="5">
+      <c r="H5" s="5">
         <v>15.8</v>
       </c>
-      <c r="H5" s="5">
-        <f>POWER(G5-G13,2)</f>
+      <c r="I5" s="5">
+        <f>POWER(H5-H13,2)</f>
         <v>3.3639999999999803E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -22050,22 +25611,26 @@
       <c r="D6" s="19">
         <v>34.1</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
+        <f t="shared" ref="E6:E12" si="0">POWER(D6-34.17,2)</f>
+        <v>4.9000000000000397E-3</v>
+      </c>
+      <c r="F6" s="19">
         <v>12</v>
       </c>
-      <c r="F6" s="6">
-        <f>POWER(E6-E13,2)</f>
+      <c r="G6" s="6">
+        <f>POWER(F6-F13,2)</f>
         <v>4.622499999999994E-2</v>
       </c>
-      <c r="G6" s="5">
+      <c r="H6" s="5">
         <v>15.85</v>
       </c>
-      <c r="H6" s="96">
-        <f>POWER(G6-G13,2)</f>
+      <c r="I6" s="58">
+        <f>POWER(H6-H13,2)</f>
         <v>6.4000000000014322E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -22078,22 +25643,26 @@
       <c r="D7" s="19">
         <v>34.1</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="6">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000397E-3</v>
+      </c>
+      <c r="F7" s="19">
         <v>12</v>
       </c>
-      <c r="F7" s="6">
-        <f>POWER(E7-E13,2)</f>
+      <c r="G7" s="6">
+        <f>POWER(F7-F13,2)</f>
         <v>4.622499999999994E-2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="H7" s="5">
         <v>15.8</v>
       </c>
-      <c r="H7" s="5">
-        <f>POWER(G7-G13,2)</f>
+      <c r="I7" s="5">
+        <f>POWER(H7-H13,2)</f>
         <v>3.3639999999999803E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -22106,22 +25675,26 @@
       <c r="D8" s="19">
         <v>34.450000000000003</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="6">
+        <f t="shared" si="0"/>
+        <v>7.8400000000000636E-2</v>
+      </c>
+      <c r="F8" s="19">
         <v>12.75</v>
       </c>
-      <c r="F8" s="19">
-        <f>POWER(E8-E13,2)</f>
+      <c r="G8" s="19">
+        <f>POWER(F8-F13,2)</f>
         <v>0.28622500000000017</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="H8" s="5">
-        <f>POWER(G8-G13,2)</f>
+      <c r="I8" s="5">
+        <f>POWER(H8-H13,2)</f>
         <v>5.8564000000000428E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -22134,22 +25707,26 @@
       <c r="D9" s="19">
         <v>34.200000000000003</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="17">
+        <f t="shared" si="0"/>
+        <v>9.0000000000006817E-4</v>
+      </c>
+      <c r="F9" s="19">
         <v>12.9</v>
       </c>
-      <c r="F9" s="19">
-        <f>POWER(E9-E13,2)</f>
+      <c r="G9" s="19">
+        <f>POWER(F9-F13,2)</f>
         <v>0.46922500000000067</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H9" s="5">
         <v>16</v>
       </c>
-      <c r="H9" s="5">
-        <f>POWER(G9-G13,2)</f>
+      <c r="I9" s="5">
+        <f>POWER(H9-H13,2)</f>
         <v>2.0163999999999845E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -22162,22 +25739,26 @@
       <c r="D10" s="19">
         <v>34.200000000000003</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="6">
+        <f t="shared" si="0"/>
+        <v>9.0000000000006817E-4</v>
+      </c>
+      <c r="F10" s="19">
         <v>11.8</v>
       </c>
-      <c r="F10" s="19">
-        <f>POWER(E10-E13,2)</f>
+      <c r="G10" s="19">
+        <f>POWER(F10-F13,2)</f>
         <v>0.1722249999999993</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="5">
         <v>16</v>
       </c>
-      <c r="H10" s="5">
-        <f>POWER(G10-G13,2)</f>
+      <c r="I10" s="5">
+        <f>POWER(H10-H13,2)</f>
         <v>2.0163999999999845E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -22190,22 +25771,26 @@
       <c r="D11" s="19">
         <v>34.4</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
+        <v>5.2899999999998559E-2</v>
+      </c>
+      <c r="F11" s="19">
         <v>11.8</v>
       </c>
-      <c r="F11" s="19">
-        <f>POWER(E11-E13,2)</f>
+      <c r="G11" s="19">
+        <f>POWER(F11-F13,2)</f>
         <v>0.1722249999999993</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="5">
         <v>16</v>
       </c>
-      <c r="H11" s="5">
-        <f>POWER(G11-G13,2)</f>
+      <c r="I11" s="5">
+        <f>POWER(H11-H13,2)</f>
         <v>2.0163999999999845E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>10</v>
       </c>
@@ -22218,22 +25803,26 @@
       <c r="D12" s="8">
         <v>34</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="17">
+        <f t="shared" si="0"/>
+        <v>2.8900000000000581E-2</v>
+      </c>
+      <c r="F12" s="8">
         <v>12.95</v>
       </c>
-      <c r="F12" s="8">
-        <f>POWER(E12-E13,2)</f>
+      <c r="G12" s="8">
+        <f>POWER(F12-F13,2)</f>
         <v>0.54022499999999918</v>
       </c>
-      <c r="G12" s="10">
+      <c r="H12" s="10">
         <v>16.100000000000001</v>
       </c>
-      <c r="H12" s="10">
-        <f>POWER(G12-G13,2)</f>
+      <c r="I12" s="10">
+        <f>POWER(H12-H13,2)</f>
         <v>5.8564000000000428E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="8">
         <f>AVERAGE(B3:B12)</f>
@@ -22244,138 +25833,150 @@
         <f>AVERAGE(D3:D12)</f>
         <v>34.169999999999995</v>
       </c>
-      <c r="E13" s="8">
-        <f>AVERAGE(E3:E12)</f>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
+        <f>AVERAGE(F3:F12)</f>
         <v>12.215</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="10">
-        <f>AVERAGE(G3:G12)</f>
+      <c r="G13" s="8"/>
+      <c r="H13" s="10">
+        <f>AVERAGE(H3:H12)</f>
         <v>15.858000000000001</v>
       </c>
-      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:8" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8" t="s">
         <v>43</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8">
+        <f>SUM(E3:E12)</f>
+        <v>0.20600000000000074</v>
+      </c>
       <c r="F14" s="8">
-        <f>SUM(F3:F12)</f>
+        <f>SUM(G3:G12)</f>
         <v>1.8952499999999985</v>
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="10">
-        <f>SUM(H3:H12)</f>
+        <f>SUM(I3:I12)</f>
         <v>0.65576000000000156</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="58" t="s">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="58" t="s">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="58" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="60"/>
+      <c r="F16" s="64"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="88" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="85"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="74"/>
+      <c r="F17" s="79"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="78"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="77"/>
-      <c r="E18" s="78" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="77"/>
+      <c r="F18" s="61"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="91" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="92"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="78" t="s">
+      <c r="B19" s="89"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="77"/>
+      <c r="F19" s="61"/>
     </row>
-    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="79"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="69"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="89" t="s">
+    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="65"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="90"/>
+      <c r="F20" s="87"/>
     </row>
-    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="58" t="s">
+    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="71" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="71"/>
+      <c r="H21" s="76"/>
+      <c r="K21" s="76" t="s">
+        <v>48</v>
+      </c>
+      <c r="L21" s="76"/>
     </row>
-    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="18"/>
       <c r="C22" s="54"/>
       <c r="D22" s="55"/>
-      <c r="E22" s="71" t="s">
+      <c r="E22" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="71"/>
-      <c r="G22" s="85" t="s">
+      <c r="F22" s="76"/>
+      <c r="G22" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="86"/>
+      <c r="H22" s="82"/>
+      <c r="K22" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" s="82"/>
     </row>
-    <row r="23" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="58" t="s">
+    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="58" t="s">
+      <c r="B23" s="64"/>
+      <c r="C23" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="60"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="27" t="s">
         <v>5</v>
       </c>
@@ -22391,64 +25992,83 @@
         <f>1.89525/90</f>
         <v>2.1058333333333335E-2</v>
       </c>
+      <c r="K23" s="39"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N23" s="8">
+        <f>0.206/90</f>
+        <v>2.2888888888888889E-3</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="88"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="88">
+    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="85"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="85">
         <v>0.05</v>
       </c>
-      <c r="D24" s="74"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="11"/>
       <c r="F24" s="5">
         <v>0.05</v>
       </c>
       <c r="G24" s="39"/>
       <c r="H24" s="40"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="40"/>
     </row>
-    <row r="25" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="78"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78">
+    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="59"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="59">
         <v>8.1669999999999998</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="85" t="s">
+      <c r="D25" s="61"/>
+      <c r="E25" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="86"/>
+      <c r="F25" s="82"/>
       <c r="G25" s="39"/>
       <c r="H25" s="40"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="40"/>
     </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="79" t="s">
+    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="70"/>
-      <c r="C26" s="79">
+      <c r="B26" s="75"/>
+      <c r="C26" s="65">
         <v>10</v>
       </c>
-      <c r="D26" s="70"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="39"/>
       <c r="F26" s="40"/>
       <c r="G26" s="30"/>
       <c r="H26" s="29"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="29"/>
     </row>
-    <row r="27" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="85" t="s">
+    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="81" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="86"/>
-      <c r="C27" s="86"/>
-      <c r="D27" s="87"/>
+      <c r="B27" s="82"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="94"/>
       <c r="E27" s="39"/>
       <c r="F27" s="40"/>
       <c r="G27" s="31" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="53"/>
+      <c r="K27" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="53"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="39"/>
       <c r="B28" s="40"/>
       <c r="C28" s="40"/>
@@ -22457,8 +26077,10 @@
       <c r="F28" s="40"/>
       <c r="G28" s="45"/>
       <c r="H28" s="46"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="39"/>
       <c r="B29" s="40"/>
       <c r="C29" s="40"/>
@@ -22467,8 +26089,10 @@
       <c r="F29" s="29"/>
       <c r="G29" s="48"/>
       <c r="H29" s="49"/>
+      <c r="K29" s="48"/>
+      <c r="L29" s="49"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="39"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
@@ -22479,8 +26103,10 @@
       <c r="F30" s="53"/>
       <c r="G30" s="48"/>
       <c r="H30" s="49"/>
+      <c r="K30" s="48"/>
+      <c r="L30" s="49"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="30"/>
       <c r="B31" s="29"/>
       <c r="C31" s="29"/>
@@ -22489,20 +26115,24 @@
       <c r="F31" s="46"/>
       <c r="G31" s="48"/>
       <c r="H31" s="49"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="49"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="82" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="83"/>
-      <c r="C32" s="83"/>
-      <c r="D32" s="84"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
       <c r="G32" s="42"/>
       <c r="H32" s="43"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="43"/>
     </row>
-    <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="46"/>
       <c r="C33" s="46"/>
@@ -22511,20 +26141,29 @@
       <c r="F33" s="49"/>
       <c r="G33" s="51"/>
       <c r="H33" s="43"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="43"/>
+      <c r="N33">
+        <v>8.4628999999999998E-4</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="48"/>
       <c r="B34" s="49"/>
       <c r="C34" s="49"/>
       <c r="D34" s="50"/>
       <c r="E34" s="48"/>
       <c r="F34" s="49"/>
-      <c r="G34" s="80" t="s">
-        <v>30</v>
+      <c r="G34" s="83" t="s">
+        <v>54</v>
       </c>
-      <c r="H34" s="81"/>
+      <c r="H34" s="84"/>
+      <c r="K34" s="83" t="s">
+        <v>53</v>
+      </c>
+      <c r="L34" s="84"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
       <c r="B35" s="49"/>
       <c r="C35" s="49"/>
@@ -22533,8 +26172,10 @@
       <c r="F35" s="43"/>
       <c r="G35" s="37"/>
       <c r="H35" s="38"/>
+      <c r="K35" s="37"/>
+      <c r="L35" s="38"/>
     </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="48"/>
       <c r="B36" s="49"/>
       <c r="C36" s="49"/>
@@ -22550,16 +26191,25 @@
         <f>0.022^2</f>
         <v>4.8399999999999995E-4</v>
       </c>
+      <c r="K36" s="35"/>
+      <c r="L36" s="32"/>
+      <c r="M36" t="s">
+        <v>50</v>
+      </c>
+      <c r="N36">
+        <f>0.0023^2</f>
+        <v>5.2900000000000002E-6</v>
+      </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="42"/>
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
       <c r="D37" s="44"/>
-      <c r="E37" s="80" t="s">
+      <c r="E37" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="81"/>
+      <c r="F37" s="84"/>
       <c r="G37" s="35"/>
       <c r="H37" s="32"/>
       <c r="I37" t="s">
@@ -22569,8 +26219,17 @@
         <f>0.000484+0.000841</f>
         <v>1.325E-3</v>
       </c>
+      <c r="K37" s="35"/>
+      <c r="L37" s="32"/>
+      <c r="M37" t="s">
+        <v>51</v>
+      </c>
+      <c r="N37">
+        <f>0.00000529+0.000841</f>
+        <v>8.4628999999999998E-4</v>
+      </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="51"/>
       <c r="B38" s="43"/>
       <c r="C38" s="43"/>
@@ -22586,18 +26245,27 @@
         <f>SQRT(0.001325)</f>
         <v>3.6400549446402593E-2</v>
       </c>
+      <c r="K38" s="33"/>
+      <c r="L38" s="34"/>
+      <c r="M38" t="s">
+        <v>52</v>
+      </c>
+      <c r="N38">
+        <f>SQRT(0.00084629)</f>
+        <v>2.9091063920042525E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="80" t="s">
+    <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="81"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
       <c r="E39" s="35"/>
       <c r="F39" s="32"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="38"/>
       <c r="C40" s="38"/>
@@ -22605,7 +26273,7 @@
       <c r="E40" s="35"/>
       <c r="F40" s="32"/>
     </row>
-    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="35"/>
       <c r="B41" s="32"/>
       <c r="C41" s="32"/>
@@ -22613,20 +26281,47 @@
       <c r="E41" s="33"/>
       <c r="F41" s="34"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" s="35"/>
       <c r="B42" s="32"/>
       <c r="C42" s="32"/>
       <c r="D42" s="36"/>
     </row>
-    <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="33"/>
       <c r="B43" s="34"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="34">
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G34:H34"/>
@@ -22634,30 +26329,6 @@
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="A27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -22669,7 +26340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H24" sqref="H23:H24"/>
     </sheetView>
   </sheetViews>
@@ -22722,11 +26393,11 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="95" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="94"/>
-      <c r="C5" s="94"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
       <c r="D5" s="56"/>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
@@ -22792,11 +26463,11 @@
       <c r="F9" s="56"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
       <c r="D10" s="57"/>
       <c r="E10" s="57"/>
       <c r="F10" s="57"/>

--- a/Fizyka_Sprawka/Cw100_Kulki_Tuleje_Gestosc.xlsx
+++ b/Fizyka_Sprawka/Cw100_Kulki_Tuleje_Gestosc.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="a)-Niepewnosc pomiarowa masy" sheetId="1" r:id="rId1"/>
     <sheet name="b)-Srednica i jej niepewnosc" sheetId="2" r:id="rId2"/>
     <sheet name="c1)V i jej niepewnosc(kula)" sheetId="3" r:id="rId3"/>
+    <sheet name="c1)V i niepewnosc-tuleja" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
   <si>
     <t>Kulka</t>
   </si>
@@ -191,6 +192,15 @@
   </si>
   <si>
     <t>Całkowita Niep. Stand.- Obliczenie - Wew</t>
+  </si>
+  <si>
+    <t>15.858 - 12.215</t>
+  </si>
+  <si>
+    <t>3.643^2</t>
+  </si>
+  <si>
+    <t>34.17 * 13.271449</t>
   </si>
 </sst>
 </file>
@@ -759,15 +769,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -775,12 +776,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -807,6 +802,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -825,6 +823,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -837,13 +847,19 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -855,16 +871,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -9952,8 +9962,8 @@
       <xdr:rowOff>17367</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2442882" cy="778250"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="50" name="TextBox 49"/>
@@ -10534,7 +10544,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="50" name="TextBox 49"/>
@@ -15651,8 +15661,8 @@
       <xdr:rowOff>9217</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1398524" cy="179665"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37"/>
@@ -15897,7 +15907,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="38" name="TextBox 37"/>
@@ -16082,8 +16092,8 @@
       <xdr:rowOff>194896</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1129604" cy="179665"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -16178,7 +16188,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -16190,7 +16200,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -16204,7 +16214,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -16217,7 +16227,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -16231,7 +16241,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -16247,7 +16257,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -16260,7 +16270,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -16275,7 +16285,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -16288,7 +16298,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -16302,7 +16312,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -16316,7 +16326,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -16330,7 +16340,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -16342,7 +16352,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -16354,7 +16364,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -16370,7 +16380,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -16574,8 +16584,8 @@
       <xdr:rowOff>55978</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2433900" cy="689458"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30"/>
@@ -16982,14 +16992,7 @@
                               <m:nor/>
                             </m:rPr>
                             <a:rPr lang="en-US"/>
-                            <m:t> </m:t>
-                          </m:r>
-                          <m:r>
-                            <m:rPr>
-                              <m:nor/>
-                            </m:rPr>
-                            <a:rPr lang="en-US"/>
-                            <m:t>  </m:t>
+                            <m:t>   </m:t>
                           </m:r>
                           <m:r>
                             <m:rPr>
@@ -17052,11 +17055,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="en-US"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US"/>
-                <a:t> </a:t>
+                <a:t>  </a:t>
               </a:r>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
@@ -17088,7 +17087,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30"/>
@@ -17495,8 +17494,8 @@
       <xdr:rowOff>10717</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2575472" cy="1076254"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="37" name="TextBox 36"/>
@@ -18204,7 +18203,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="37" name="TextBox 36"/>
@@ -18505,8 +18504,8 @@
       <xdr:rowOff>17367</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2442882" cy="778250"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="TextBox 39"/>
@@ -18942,14 +18941,7 @@
                           <m:nor/>
                         </m:rPr>
                         <a:rPr lang="en-US"/>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <m:rPr>
-                          <m:nor/>
-                        </m:rPr>
-                        <a:rPr lang="en-US"/>
-                        <m:t>  </m:t>
+                        <m:t>   </m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -19036,14 +19028,7 @@
                           <m:nor/>
                         </m:rPr>
                         <a:rPr lang="en-US"/>
-                        <m:t> </m:t>
-                      </m:r>
-                      <m:r>
-                        <m:rPr>
-                          <m:nor/>
-                        </m:rPr>
-                        <a:rPr lang="en-US"/>
-                        <m:t>   </m:t>
+                        <m:t>    </m:t>
                       </m:r>
                     </m:e>
                   </m:rad>
@@ -19079,14 +19064,7 @@
                       <m:nor/>
                     </m:rPr>
                     <a:rPr lang="en-US"/>
-                    <m:t> </m:t>
-                  </m:r>
-                  <m:r>
-                    <m:rPr>
-                      <m:nor/>
-                    </m:rPr>
-                    <a:rPr lang="en-US"/>
-                    <m:t>  </m:t>
+                    <m:t>   </m:t>
                   </m:r>
                 </m:oMath>
               </a14:m>
@@ -19125,7 +19103,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="40" name="TextBox 39"/>
@@ -24867,6 +24845,1780 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>102291</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23192</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4071499" cy="351828"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1073841" y="2337767"/>
+              <a:ext cx="4071499" cy="351828"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑉</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:acc>
+                    <m:accPr>
+                      <m:chr m:val="̅"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:accPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>h</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:acc>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑟</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:acc>
+                    <m:accPr>
+                      <m:chr m:val="̅"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:accPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>h</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:acc>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:acc>
+                        <m:accPr>
+                          <m:chr m:val="̅"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:accPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑧𝑒𝑤</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:acc>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US">
+                          <a:effectLst/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" b="0" i="1">
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>−</m:t>
+                      </m:r>
+                      <m:acc>
+                        <m:accPr>
+                          <m:chr m:val="̅"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:accPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑤𝑒𝑤</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:acc>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US">
+                          <a:effectLst/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>34.17∗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>15.858</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>−</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>12.215</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>34.17∗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>3.643</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>34.17∗</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>*</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>13.271449</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>= 453.4854123</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1073841" y="2337767"/>
+              <a:ext cx="4071499" cy="351828"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑉=ℎ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝜋𝑟^2=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ℎ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑧𝑒𝑤</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>) ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" b="0" i="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" −</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑤𝑒𝑤</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>) ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^2=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>34.17∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>15.858</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−"12.215</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>34.17∗𝜋〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"3.643</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>34.17∗𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>*</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>13.271449</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>= 453.4854123</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5442</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="312842" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="65314" y="386442"/>
+              <a:ext cx="312842" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑢</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="65314" y="386442"/>
+              <a:ext cx="312842" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑢(𝑥)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="842015" cy="160852"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="57150" y="790575"/>
+              <a:ext cx="842015" cy="160852"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>h</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="57150" y="790575"/>
+              <a:ext cx="842015" cy="160852"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>ℎ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50132</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>20053</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="842015" cy="160852"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="50132" y="982078"/>
+              <a:ext cx="842015" cy="160852"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑤𝑒𝑤</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="50132" y="982078"/>
+              <a:ext cx="842015" cy="160852"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑𝑤𝑒𝑤</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>) ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="842015" cy="160852"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1162050"/>
+              <a:ext cx="842015" cy="160852"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:acc>
+                      <m:accPr>
+                        <m:chr m:val="̅"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:accPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑑𝑧𝑒𝑤</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:acc>
+                    <m:r>
+                      <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> </m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="1162050"/>
+              <a:ext cx="842015" cy="160852"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑑𝑧𝑒𝑤</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>) ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -25151,39 +26903,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="76" t="s">
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
@@ -25192,16 +26944,16 @@
       <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="64"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -25211,14 +26963,14 @@
       <c r="B4" s="21">
         <v>0.72</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="78"/>
-      <c r="H4" s="79"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="75"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -25227,40 +26979,40 @@
       <c r="B5" s="22">
         <v>8.24</v>
       </c>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="80" t="s">
+      <c r="F5" s="76" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="60"/>
-      <c r="H5" s="61"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="78"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="23"/>
-      <c r="C6" s="72">
+      <c r="C6" s="67">
         <v>0.01</v>
       </c>
-      <c r="D6" s="73"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="74"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="75"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="64"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="61"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -25281,12 +27033,12 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="64"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -25295,18 +27047,18 @@
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="62" t="s">
+      <c r="A13" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
+      <c r="A14" s="79"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="78"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -25327,12 +27079,12 @@
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="64"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -25353,18 +27105,18 @@
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="65"/>
-      <c r="B22" s="66"/>
+      <c r="A22" s="80"/>
+      <c r="B22" s="70"/>
       <c r="C22" s="8"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="61"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -25385,12 +27137,12 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="62" t="s">
+      <c r="A27" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="64"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
@@ -25412,6 +27164,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="J1:Q1"/>
@@ -25427,11 +27184,6 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25443,8 +27195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25468,16 +27220,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="62" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -25867,86 +27619,86 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="64"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="61"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="62" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="64"/>
+      <c r="F16" s="61"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="85" t="s">
+      <c r="A17" s="89"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="79"/>
+      <c r="F17" s="75"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="59" t="s">
+      <c r="A18" s="79"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="61"/>
+      <c r="F18" s="78"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="88" t="s">
+      <c r="A19" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="89"/>
-      <c r="C19" s="89"/>
-      <c r="D19" s="90"/>
-      <c r="E19" s="59" t="s">
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="61"/>
+      <c r="F19" s="78"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="86" t="s">
+      <c r="A20" s="80"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="87"/>
+      <c r="F20" s="94"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
-      <c r="F21" s="63"/>
-      <c r="G21" s="76" t="s">
+      <c r="B21" s="60"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="76"/>
-      <c r="K21" s="76" t="s">
+      <c r="H21" s="72"/>
+      <c r="K21" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="76"/>
+      <c r="L21" s="72"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
@@ -25955,10 +27707,10 @@
       <c r="B22" s="18"/>
       <c r="C22" s="54"/>
       <c r="D22" s="55"/>
-      <c r="E22" s="76" t="s">
+      <c r="E22" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="76"/>
+      <c r="F22" s="72"/>
       <c r="G22" s="81" t="s">
         <v>27</v>
       </c>
@@ -25969,14 +27721,14 @@
       <c r="L22" s="82"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="62" t="s">
+      <c r="A23" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="64"/>
-      <c r="C23" s="62" t="s">
+      <c r="B23" s="61"/>
+      <c r="C23" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="64"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="27" t="s">
         <v>5</v>
       </c>
@@ -26003,12 +27755,12 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="85"/>
-      <c r="B24" s="79"/>
-      <c r="C24" s="85">
+      <c r="A24" s="89"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="89">
         <v>0.05</v>
       </c>
-      <c r="D24" s="79"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="11"/>
       <c r="F24" s="5">
         <v>0.05</v>
@@ -26019,12 +27771,12 @@
       <c r="L24" s="40"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="59"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="59">
+      <c r="A25" s="79"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="79">
         <v>8.1669999999999998</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="78"/>
       <c r="E25" s="81" t="s">
         <v>27</v>
       </c>
@@ -26035,14 +27787,14 @@
       <c r="L25" s="40"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="75"/>
-      <c r="C26" s="65">
+      <c r="B26" s="71"/>
+      <c r="C26" s="80">
         <v>10</v>
       </c>
-      <c r="D26" s="75"/>
+      <c r="D26" s="71"/>
       <c r="E26" s="39"/>
       <c r="F26" s="40"/>
       <c r="G26" s="30"/>
@@ -26056,7 +27808,7 @@
       </c>
       <c r="B27" s="82"/>
       <c r="C27" s="82"/>
-      <c r="D27" s="94"/>
+      <c r="D27" s="88"/>
       <c r="E27" s="39"/>
       <c r="F27" s="40"/>
       <c r="G27" s="31" t="s">
@@ -26119,12 +27871,12 @@
       <c r="L31" s="49"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="91" t="s">
+      <c r="A32" s="85" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="87"/>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
       <c r="G32" s="42"/>
@@ -26295,6 +28047,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K34:L34"/>
@@ -26309,26 +28079,8 @@
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A16:D16"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -26340,8 +28092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H24" sqref="H23:H24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="A10:F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26585,4 +28337,125 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>34.17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="15"/>
+      <c r="B6">
+        <v>12.215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7">
+        <v>15.858000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <f>15.858-12.215</f>
+        <v>3.6430000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <f>3.643^2</f>
+        <v>13.271448999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <f>34.17 * 13.271449</f>
+        <v>453.48541233000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="56"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="56"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Fizyka_Sprawka/Cw100_Kulki_Tuleje_Gestosc.xlsx
+++ b/Fizyka_Sprawka/Cw100_Kulki_Tuleje_Gestosc.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="a)-Niepewnosc pomiarowa masy" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="73">
   <si>
     <t>Kulka</t>
   </si>
@@ -202,6 +202,51 @@
   <si>
     <t>34.17 * 13.271449</t>
   </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>(dwew-dzew)</t>
+  </si>
+  <si>
+    <t>2h*(dwew-dzew)</t>
+  </si>
+  <si>
+    <t>(2h*(dwew-dzew))^2</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>(dzew-dwew)</t>
+  </si>
+  <si>
+    <t>dzew-dwew</t>
+  </si>
+  <si>
+    <t>(dzew-dwew)^2</t>
+  </si>
+  <si>
+    <t>((dzew-dwew)^2)^2</t>
+  </si>
+  <si>
+    <t>skl z dwew</t>
+  </si>
+  <si>
+    <t>skl z dzew</t>
+  </si>
+  <si>
+    <t>skl z h</t>
+  </si>
+  <si>
+    <t>suma powyzszych sklad.</t>
+  </si>
+  <si>
+    <t>sqrt(124140.903673088)</t>
+  </si>
+  <si>
+    <t>WYNIK!!!!!!!!!!</t>
+  </si>
 </sst>
 </file>
 
@@ -228,7 +273,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -262,6 +307,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,7 +742,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -769,6 +832,15 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -776,6 +848,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -802,9 +880,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -823,28 +898,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -859,30 +940,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24854,18 +24930,18 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>23192</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4071499" cy="351828"/>
+    <xdr:ext cx="4154194" cy="359329"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
               <a:off x="1073841" y="2337767"/>
-              <a:ext cx="4071499" cy="351828"/>
+              <a:ext cx="4154194" cy="359329"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -24887,12 +24963,11 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -24976,7 +25051,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -24989,7 +25064,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -25003,7 +25078,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -25017,7 +25092,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -25045,7 +25120,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -25058,7 +25133,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -25072,7 +25147,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -25103,7 +25178,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -25116,7 +25191,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -25130,7 +25205,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -25165,7 +25240,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -25179,11 +25254,11 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>=</m:t>
+                    <m:t>=34.17∗</m:t>
                   </m:r>
                   <m:r>
                     <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -25192,18 +25267,6 @@
                       </a:solidFill>
                       <a:effectLst/>
                       <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:rPr>
-                    <m:t>34.17∗</m:t>
-                  </m:r>
-                  <m:r>
-                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1"/>
-                      </a:solidFill>
-                      <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -25217,7 +25280,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -25230,35 +25293,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>(</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>15.858</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>−</m:t>
+                        <m:t>(15.858−</m:t>
                       </m:r>
                       <m:r>
                         <m:rPr>
@@ -25296,7 +25335,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -25310,7 +25349,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -25326,7 +25365,6 @@
               </a:r>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -25335,7 +25373,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -25347,7 +25385,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -25361,7 +25399,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -25374,7 +25412,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -25408,7 +25446,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -25422,7 +25460,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -25444,7 +25482,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -25456,7 +25494,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -25512,7 +25550,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -25528,13 +25566,13 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvPr id="7" name="TextBox 6"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
               <a:off x="1073841" y="2337767"/>
-              <a:ext cx="4071499" cy="351828"/>
+              <a:ext cx="4154194" cy="359329"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -25556,12 +25594,11 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -25587,14 +25624,201 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ℎ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑧𝑒𝑤</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>) ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" b="0" i="0">
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" −</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑤𝑒𝑤</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>) ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2=34.17∗𝜋〖(15.858−</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>ℎ</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:t>"12.215</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -25603,7 +25827,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> ̅</a:t>
+                <a:t> </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -25611,254 +25835,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜋〖</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑑𝑧𝑒𝑤</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>) ̅</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" i="0">
-                  <a:effectLst/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" b="0" i="0">
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>" −</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑑𝑤𝑒𝑤</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>) ̅</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>  </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" i="0">
-                  <a:effectLst/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〗^2=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>34.17∗</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝜋〖(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>15.858</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>−"12.215</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -25870,14 +25847,13 @@
               </a:r>
             </a:p>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -25905,7 +25881,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -25921,7 +25897,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -25973,7 +25949,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -25999,7 +25975,7 @@
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -26091,7 +26067,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvPr id="8" name="TextBox 7"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -26157,7 +26133,7 @@
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -26235,7 +26211,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -26310,7 +26286,7 @@
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -26388,7 +26364,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -26469,7 +26445,7 @@
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -26547,7 +26523,7 @@
       <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -26608,6 +26584,6677 @@
               <a:endParaRPr lang="pl-PL" sz="1100" b="0"/>
             </a:p>
             <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>142976</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30551</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5595898" cy="2185778"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4953101" y="4640651"/>
+              <a:ext cx="5595898" cy="2185778"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑢</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑐</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑉</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>=</m:t>
+                    </m:r>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:radPr>
+                      <m:deg/>
+                      <m:e>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>ⅆ</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑉</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>ⅆ</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑑𝑤𝑒𝑤</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑢</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑑𝑤𝑒𝑤</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>))</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>ⅆ</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑉</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>ⅆ</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑑𝑧𝑒𝑤</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑢</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑑𝑧𝑒𝑤</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>))</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                        <m:r>
+                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>+</m:t>
+                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:f>
+                              <m:fPr>
+                                <m:ctrlPr>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                </m:ctrlPr>
+                              </m:fPr>
+                              <m:num>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>ⅆ</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>𝑉</m:t>
+                                </m:r>
+                              </m:num>
+                              <m:den>
+                                <m:r>
+                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>ⅆ</m:t>
+                                </m:r>
+                                <m:r>
+                                  <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                    <a:solidFill>
+                                      <a:schemeClr val="tx1"/>
+                                    </a:solidFill>
+                                    <a:effectLst/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:ea typeface="+mn-ea"/>
+                                    <a:cs typeface="+mn-cs"/>
+                                  </a:rPr>
+                                  <m:t>h</m:t>
+                                </m:r>
+                              </m:den>
+                            </m:f>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>𝑢</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>(</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>h</m:t>
+                            </m:r>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>))</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                <a:solidFill>
+                                  <a:schemeClr val="tx1"/>
+                                </a:solidFill>
+                                <a:effectLst/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                <a:ea typeface="+mn-ea"/>
+                                <a:cs typeface="+mn-cs"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
+                      </m:e>
+                    </m:rad>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="pl-PL" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent2">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:f>
+                            <m:fPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent2">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:fPr>
+                            <m:num>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent2">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>ⅆ</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent2">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑉</m:t>
+                              </m:r>
+                            </m:num>
+                            <m:den>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent2">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>ⅆ</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent2">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑑𝑤𝑒𝑤</m:t>
+                              </m:r>
+                            </m:den>
+                          </m:f>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent2">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑢</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent2">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent2">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑤𝑒𝑤</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent2">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>))</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent1">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent1">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:f>
+                            <m:fPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent1">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:fPr>
+                            <m:num>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent1">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>ⅆ</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent1">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑉</m:t>
+                              </m:r>
+                            </m:num>
+                            <m:den>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent1">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>ⅆ</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent1">
+                                      <a:lumMod val="75000"/>
+                                    </a:schemeClr>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑑𝑧𝑒𝑤</m:t>
+                              </m:r>
+                            </m:den>
+                          </m:f>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent1">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑢</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent1">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent1">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑧𝑒𝑤</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent1">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>))</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent1">
+                                  <a:lumMod val="75000"/>
+                                </a:schemeClr>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent6"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent6"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:f>
+                            <m:fPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent6"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:fPr>
+                            <m:num>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent6"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>ⅆ</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent6"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑉</m:t>
+                              </m:r>
+                            </m:num>
+                            <m:den>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent6"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>ⅆ</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="accent6"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>h</m:t>
+                              </m:r>
+                            </m:den>
+                          </m:f>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent6"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑢</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent6"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent6"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>h</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent6"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>))</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="accent6"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:e>
+                  </m:rad>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>h</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝜋</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>dwew</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>-</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>dzew</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US">
+                              <a:effectLst/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>h</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝜋</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>dzew</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>-</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>dwew</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝜋</m:t>
+                          </m:r>
+                          <m:d>
+                            <m:dPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:dPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑑𝑧𝑒𝑤</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>−</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑑𝑤𝑒𝑤</m:t>
+                              </m:r>
+                            </m:e>
+                          </m:d>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>=</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:rad>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="pl-PL" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>61982.38616</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>61982.38616</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>+</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>176.1313586</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>124140.9037</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>352.3363502</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>≈</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>360</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4953101" y="4640651"/>
+              <a:ext cx="5595898" cy="2185778"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="20000"/>
+                <a:lumOff val="80000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑉)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑤𝑒𝑤 𝑢(𝑑𝑤𝑒𝑤))〗^2+〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑧𝑒𝑤 𝑢(𝑑𝑧𝑒𝑤))〗^2+〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ℎ 𝑢(ℎ))〗^2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="pl-PL" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑤𝑒𝑤 𝑢(𝑑𝑤𝑒𝑤))</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^2+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑧𝑒𝑤 𝑢(𝑑𝑧𝑒𝑤))〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>+</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ℎ 𝑢(ℎ))〗^2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖("</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2h</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" 𝜋"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(dwew-dzew)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^2+〖("</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2h</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" 𝜋"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(dzew-dwew)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)" 〗^2+〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑑𝑧𝑒𝑤−𝑑𝑤𝑒𝑤))</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:endParaRPr lang="pl-PL" sz="1100"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"61982.38616</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" +</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"61982.38616</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" +</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"176.1313586</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"124140.9037</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>352.3363502</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>≈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL">
+                  <a:effectLst/>
+                </a:rPr>
+                <a:t>360</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr/>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>453473</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142728</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2784231" cy="1022890"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1425023" y="3219303"/>
+              <a:ext cx="2784231" cy="1022890"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:sSub>
+                    <m:sSubPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSubPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑢</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sub>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑐</m:t>
+                      </m:r>
+                    </m:sub>
+                  </m:sSub>
+                  <m:d>
+                    <m:dPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:dPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑉</m:t>
+                      </m:r>
+                    </m:e>
+                  </m:d>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:f>
+                            <m:fPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:fPr>
+                            <m:num>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>ⅆ</m:t>
+                              </m:r>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑉</m:t>
+                              </m:r>
+                            </m:num>
+                            <m:den>
+                              <m:r>
+                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>ⅆ</m:t>
+                              </m:r>
+                              <m:sSub>
+                                <m:sSubPr>
+                                  <m:ctrlPr>
+                                    <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                  </m:ctrlPr>
+                                </m:sSubPr>
+                                <m:e>
+                                  <m:r>
+                                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>𝑥</m:t>
+                                  </m:r>
+                                </m:e>
+                                <m:sub>
+                                  <m:r>
+                                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                      <a:solidFill>
+                                        <a:schemeClr val="tx1"/>
+                                      </a:solidFill>
+                                      <a:effectLst/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                      <a:ea typeface="+mn-ea"/>
+                                      <a:cs typeface="+mn-cs"/>
+                                    </a:rPr>
+                                    <m:t>1</m:t>
+                                  </m:r>
+                                </m:sub>
+                              </m:sSub>
+                            </m:den>
+                          </m:f>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑢</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:sSub>
+                            <m:sSubPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSubPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑥</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sub>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                            </m:sub>
+                          </m:sSub>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>))</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:f>
+                            <m:fPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:fPr>
+                            <m:num>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>1</m:t>
+                              </m:r>
+                            </m:num>
+                            <m:den>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:den>
+                          </m:f>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝜋</m:t>
+                          </m:r>
+                          <m:sSup>
+                            <m:sSupPr>
+                              <m:ctrlPr>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                              </m:ctrlPr>
+                            </m:sSupPr>
+                            <m:e>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>𝑑</m:t>
+                              </m:r>
+                            </m:e>
+                            <m:sup>
+                              <m:r>
+                                <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                                  <a:solidFill>
+                                    <a:schemeClr val="tx1"/>
+                                  </a:solidFill>
+                                  <a:effectLst/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:ea typeface="+mn-ea"/>
+                                  <a:cs typeface="+mn-cs"/>
+                                </a:rPr>
+                                <m:t>2</m:t>
+                              </m:r>
+                            </m:sup>
+                          </m:sSup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>∗</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑢</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝑑</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>))</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>33.3499445</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>𝜋</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US" sz="1100" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="pl-PL" sz="1100">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>∗</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>0.067</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US"/>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:sSup>
+                        <m:sSupPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:sSupPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>(</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="+mn-lt"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2.23444628</m:t>
+                          </m:r>
+                          <m:r>
+                            <m:rPr>
+                              <m:nor/>
+                            </m:rPr>
+                            <a:rPr lang="en-US"/>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>)</m:t>
+                          </m:r>
+                        </m:e>
+                        <m:sup>
+                          <m:r>
+                            <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                              <a:solidFill>
+                                <a:schemeClr val="tx1"/>
+                              </a:solidFill>
+                              <a:effectLst/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="+mn-ea"/>
+                              <a:cs typeface="+mn-cs"/>
+                            </a:rPr>
+                            <m:t>2</m:t>
+                          </m:r>
+                        </m:sup>
+                      </m:sSup>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:rad>
+                    <m:radPr>
+                      <m:degHide m:val="on"/>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:radPr>
+                    <m:deg/>
+                    <m:e>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>4.99275018</m:t>
+                      </m:r>
+                      <m:r>
+                        <m:rPr>
+                          <m:nor/>
+                        </m:rPr>
+                        <a:rPr lang="en-US"/>
+                        <m:t> </m:t>
+                      </m:r>
+                    </m:e>
+                  </m:rad>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>= </m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2.23444628</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-US" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>≈</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>2.3</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="TextBox 12"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1425023" y="3219303"/>
+              <a:ext cx="2784231" cy="1022890"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑢_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑐</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> (</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑉)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/(ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>1 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> 𝑢(𝑥_1))〗^2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(1/2 𝜋𝑑^2∗𝑢(𝑑))〗^2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"33.3499445</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" 𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" ∗</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"0.067</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"2.23444628</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2 </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>"4.99275018</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>= </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2.23444628</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US"/>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>≈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>2.3</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>273063</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>75873</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2183606" cy="302419"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10360038" y="2580948"/>
+              <a:ext cx="2183606" cy="302419"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑉</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑑𝑧𝑒𝑤</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑢</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑑𝑧𝑒𝑤</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>)</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2h</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(dzew-dwew)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="TextBox 13"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10360038" y="2580948"/>
+              <a:ext cx="2183606" cy="302419"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑧𝑒𝑤 𝑢(𝑑𝑧𝑒𝑤)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>2h</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(dzew-dwew)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US">
+                <a:effectLst/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>585740</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76983</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1679883" cy="246927"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6005465" y="2582058"/>
+              <a:ext cx="1679883" cy="246927"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑉</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>h</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑢</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>h</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>)</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑑𝑧𝑒𝑤</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>−</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑑𝑤𝑒𝑤</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="TextBox 14"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6005465" y="2582058"/>
+              <a:ext cx="1679883" cy="246927"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ℎ 𝑢(ℎ)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋〖(𝑑𝑧𝑒𝑤−𝑑𝑤𝑒𝑤)〗^2</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>297500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>39187</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2036776" cy="246927"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10384475" y="229687"/>
+              <a:ext cx="2036776" cy="246927"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑉</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑑𝑤𝑒𝑤</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑢</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑑𝑤𝑒𝑤</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>)</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>= 2h</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>(dwew-dzew)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="TextBox 15"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10384475" y="229687"/>
+              <a:ext cx="2036776" cy="246927"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑤𝑒𝑤 𝑢(𝑑𝑤𝑒𝑤)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>= 2h</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>(dwew-dzew)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>48985</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>185057</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3205843" cy="419154"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10135960" y="1547132"/>
+              <a:ext cx="3205843" cy="419154"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑉</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑑𝑤𝑒𝑤</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑢</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑑𝑤𝑒𝑤</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>)</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>= 2h</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>(dwew-dzew)= 68.34</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>*(-3.643) = -248.96262</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="17" name="TextBox 16"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10135960" y="1547132"/>
+              <a:ext cx="3205843" cy="419154"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑤𝑒𝑤 𝑢(𝑑𝑤𝑒𝑤)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>= 2h</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>(dwew-dzew)= 68.34</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>*(-3.643) = -248.96262</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>106964</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2839</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3205843" cy="419154"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="TextBox 17"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10193939" y="3850939"/>
+              <a:ext cx="3205843" cy="419154"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑉</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑑𝑧𝑒𝑤</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑢</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑑𝑧𝑒𝑤</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>)</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>= 2h</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>(dzew-dwew)= 68.34</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>*(3.643) = 248.96262</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="TextBox 17"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10193939" y="3850939"/>
+              <a:ext cx="3205843" cy="419154"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑑𝑧𝑒𝑤 𝑢(𝑑𝑧𝑒𝑤)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>= 2h</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>(dzew-dwew)= 68.34</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>*(3.643) = 248.96262</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>604631</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107674</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2455416" cy="246927"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6024356" y="3955774"/>
+              <a:ext cx="2455416" cy="246927"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑉</m:t>
+                      </m:r>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>ⅆ</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>h</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝑢</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>(</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>h</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>)</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                  <m:sSup>
+                    <m:sSupPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:sSupPr>
+                    <m:e>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>(</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑑𝑧𝑒𝑤</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>−</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>𝑑𝑤𝑒𝑤</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>)</m:t>
+                      </m:r>
+                    </m:e>
+                    <m:sup>
+                      <m:r>
+                        <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1"/>
+                          </a:solidFill>
+                          <a:effectLst/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:rPr>
+                        <m:t>2</m:t>
+                      </m:r>
+                    </m:sup>
+                  </m:sSup>
+                </m:oMath>
+              </a14:m>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>13.271449</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>𝜋</m:t>
+                  </m:r>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="TextBox 18"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6024356" y="3955774"/>
+              <a:ext cx="2455416" cy="246927"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑉</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/ⅆ</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>ℎ 𝑢(ℎ)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜋〖(𝑑𝑧𝑒𝑤−𝑑𝑤𝑒𝑤)〗^2</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100"/>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>13.271449𝜋</a:t>
+              </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
           </xdr:txBody>
@@ -26903,39 +33550,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="62"/>
-      <c r="K1" s="62"/>
-      <c r="L1" s="62"/>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="60"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="15" t="s">
@@ -26944,16 +33591,16 @@
       <c r="B3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -26963,14 +33610,14 @@
       <c r="B4" s="21">
         <v>0.72</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="3"/>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="75"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
@@ -26979,40 +33626,40 @@
       <c r="B5" s="22">
         <v>8.24</v>
       </c>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="3"/>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="61"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="23"/>
-      <c r="C6" s="67">
+      <c r="C6" s="72">
         <v>0.01</v>
       </c>
-      <c r="D6" s="68"/>
+      <c r="D6" s="73"/>
       <c r="E6" s="7"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="71"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="75"/>
     </row>
     <row r="7" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="61"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="64"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -27033,12 +33680,12 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="64"/>
     </row>
     <row r="12" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -27047,18 +33694,18 @@
       <c r="D12" s="5"/>
     </row>
     <row r="13" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="64"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="79"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="78"/>
+      <c r="A14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="61"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -27079,12 +33726,12 @@
       <c r="D17" s="10"/>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="64"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -27105,18 +33752,18 @@
       <c r="D21" s="5"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="80"/>
-      <c r="B22" s="70"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="66"/>
       <c r="C22" s="8"/>
       <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="60"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -27137,12 +33784,12 @@
       <c r="D26" s="5"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="62" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="60"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="64"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="16"/>
@@ -27164,11 +33811,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A22:B22"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="J1:Q1"/>
@@ -27184,6 +33826,11 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="F5:H5"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -27220,16 +33867,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="64"/>
+      <c r="C1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
@@ -27619,86 +34266,86 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="61"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="64"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="59" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="61"/>
+      <c r="F16" s="64"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="89" t="s">
+      <c r="A17" s="83"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="75"/>
+      <c r="F17" s="79"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="79"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="79" t="s">
+      <c r="A18" s="59"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="59" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="78"/>
+      <c r="F18" s="61"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="90" t="s">
+      <c r="A19" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="79" t="s">
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="78"/>
+      <c r="F19" s="61"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="80"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="93" t="s">
+      <c r="A20" s="65"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="94"/>
+      <c r="F20" s="85"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="72" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="H21" s="72"/>
-      <c r="K21" s="72" t="s">
+      <c r="H21" s="76"/>
+      <c r="K21" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="L21" s="72"/>
+      <c r="L21" s="76"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
@@ -27707,28 +34354,28 @@
       <c r="B22" s="18"/>
       <c r="C22" s="54"/>
       <c r="D22" s="55"/>
-      <c r="E22" s="72" t="s">
+      <c r="E22" s="76" t="s">
         <v>41</v>
       </c>
-      <c r="F22" s="72"/>
-      <c r="G22" s="81" t="s">
+      <c r="F22" s="76"/>
+      <c r="G22" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="H22" s="82"/>
-      <c r="K22" s="81" t="s">
+      <c r="H22" s="90"/>
+      <c r="K22" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="L22" s="82"/>
+      <c r="L22" s="90"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="61"/>
-      <c r="C23" s="59" t="s">
+      <c r="B23" s="64"/>
+      <c r="C23" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="61"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="27" t="s">
         <v>5</v>
       </c>
@@ -27755,12 +34402,12 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="89"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="89">
+      <c r="A24" s="83"/>
+      <c r="B24" s="79"/>
+      <c r="C24" s="83">
         <v>0.05</v>
       </c>
-      <c r="D24" s="75"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="11"/>
       <c r="F24" s="5">
         <v>0.05</v>
@@ -27771,30 +34418,30 @@
       <c r="L24" s="40"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="79"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="79">
+      <c r="A25" s="59"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="59">
         <v>8.1669999999999998</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="81" t="s">
+      <c r="D25" s="61"/>
+      <c r="E25" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="F25" s="82"/>
+      <c r="F25" s="90"/>
       <c r="G25" s="39"/>
       <c r="H25" s="40"/>
       <c r="K25" s="39"/>
       <c r="L25" s="40"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="80" t="s">
+      <c r="A26" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="71"/>
-      <c r="C26" s="80">
+      <c r="B26" s="75"/>
+      <c r="C26" s="65">
         <v>10</v>
       </c>
-      <c r="D26" s="71"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="39"/>
       <c r="F26" s="40"/>
       <c r="G26" s="30"/>
@@ -27803,12 +34450,12 @@
       <c r="L26" s="29"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="81" t="s">
+      <c r="A27" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="82"/>
-      <c r="D27" s="88"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="94"/>
       <c r="E27" s="39"/>
       <c r="F27" s="40"/>
       <c r="G27" s="31" t="s">
@@ -27871,12 +34518,12 @@
       <c r="L31" s="49"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="85" t="s">
+      <c r="A32" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="B32" s="86"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="87"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
       <c r="E32" s="48"/>
       <c r="F32" s="49"/>
       <c r="G32" s="42"/>
@@ -27906,14 +34553,14 @@
       <c r="D34" s="50"/>
       <c r="E34" s="48"/>
       <c r="F34" s="49"/>
-      <c r="G34" s="83" t="s">
+      <c r="G34" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="H34" s="84"/>
-      <c r="K34" s="83" t="s">
+      <c r="H34" s="82"/>
+      <c r="K34" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="L34" s="84"/>
+      <c r="L34" s="82"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" s="48"/>
@@ -27958,10 +34605,10 @@
       <c r="B37" s="43"/>
       <c r="C37" s="43"/>
       <c r="D37" s="44"/>
-      <c r="E37" s="83" t="s">
+      <c r="E37" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="F37" s="84"/>
+      <c r="F37" s="82"/>
       <c r="G37" s="35"/>
       <c r="H37" s="32"/>
       <c r="I37" t="s">
@@ -28008,12 +34655,12 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="83" t="s">
+      <c r="A39" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="84"/>
+      <c r="B39" s="82"/>
+      <c r="C39" s="82"/>
+      <c r="D39" s="82"/>
       <c r="E39" s="35"/>
       <c r="F39" s="32"/>
     </row>
@@ -28047,24 +34694,6 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A16:D16"/>
     <mergeCell ref="K21:L21"/>
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K34:L34"/>
@@ -28081,6 +34710,24 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="G21:H21"/>
     <mergeCell ref="G22:H22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -28092,7 +34739,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F23" sqref="A10:F23"/>
     </sheetView>
   </sheetViews>
@@ -28341,119 +34988,572 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" customWidth="1"/>
+    <col min="15" max="15" width="24.5703125" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="98" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="98"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="99"/>
+      <c r="Q2" s="99"/>
+      <c r="R2" s="99"/>
     </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="99"/>
+      <c r="O3" s="99"/>
+      <c r="P3" s="99"/>
+      <c r="Q3" s="99"/>
+      <c r="R3" s="99"/>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="97"/>
+      <c r="I4" s="97"/>
+      <c r="J4" s="97"/>
+      <c r="K4" s="97"/>
+      <c r="L4" s="97"/>
+      <c r="M4" s="97"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="99" t="s">
+        <v>58</v>
+      </c>
+      <c r="P4" s="99">
+        <f>2*B5</f>
+        <v>68.34</v>
+      </c>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="4">
         <v>34.17</v>
       </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="97"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="97"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="99"/>
+      <c r="O5" s="99" t="s">
+        <v>59</v>
+      </c>
+      <c r="P5" s="99">
+        <f>B6-B7</f>
+        <v>-3.6430000000000007</v>
+      </c>
+      <c r="Q5" s="99"/>
+      <c r="R5" s="99"/>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="15"/>
-      <c r="B6">
+      <c r="B6" s="4">
         <v>12.215</v>
       </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="97"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" s="99">
+        <f>P4*P5</f>
+        <v>-248.96262000000007</v>
+      </c>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="99"/>
     </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="15"/>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>15.858000000000001</v>
       </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="97"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="99" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="99">
+        <f>POWER(P6,2)</f>
+        <v>61982.386157264438</v>
+      </c>
+      <c r="Q7" s="99"/>
+      <c r="R7" s="99"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <f>15.858-12.215</f>
         <v>3.6430000000000007</v>
       </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="97"/>
+      <c r="K8" s="97"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="99"/>
+      <c r="O8" s="99"/>
+      <c r="P8" s="99"/>
+      <c r="Q8" s="99"/>
+      <c r="R8" s="99"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <f>3.643^2</f>
         <v>13.271448999999999</v>
       </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="97"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="97"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="99"/>
+      <c r="P9" s="99"/>
+      <c r="Q9" s="99"/>
+      <c r="R9" s="99"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <f>34.17 * 13.271449</f>
         <v>453.48541233000003</v>
       </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
+      <c r="Q10" s="99"/>
+      <c r="R10" s="99"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="95" t="s">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="100" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="97"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="56"/>
-      <c r="C13" s="56"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="102"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="103"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="97"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="56"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="101"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="101"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="56"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="101"/>
+      <c r="F16" s="101"/>
+      <c r="G16" s="102"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="103"/>
+      <c r="J16" s="103"/>
+      <c r="K16" s="103"/>
+      <c r="L16" s="103"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104" t="s">
+        <v>58</v>
+      </c>
+      <c r="P16" s="104">
+        <f>2*B5</f>
+        <v>68.34</v>
+      </c>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+    </row>
+    <row r="17" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="105">
+        <f>B5</f>
+        <v>34.17</v>
+      </c>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" s="104">
+        <f>B7-B6</f>
+        <v>3.6430000000000007</v>
+      </c>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H18" s="103"/>
+      <c r="I18" s="103" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="103">
+        <f>B7-B6</f>
+        <v>3.6430000000000007</v>
+      </c>
+      <c r="K18" s="103"/>
+      <c r="L18" s="103"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="P18" s="104">
+        <f>P16*P17</f>
+        <v>248.96262000000007</v>
+      </c>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H19" s="103"/>
+      <c r="I19" s="103" t="s">
+        <v>65</v>
+      </c>
+      <c r="J19" s="103">
+        <f>POWER(J18,2)</f>
+        <v>13.271449000000006</v>
+      </c>
+      <c r="K19" s="103"/>
+      <c r="L19" s="103"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="104">
+        <f>POWER(P18,2)</f>
+        <v>61982.386157264438</v>
+      </c>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H20" s="103"/>
+      <c r="I20" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="103">
+        <f>POWER(J19,2)</f>
+        <v>176.13135855960115</v>
+      </c>
+      <c r="K20" s="103"/>
+      <c r="L20" s="103"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H21" s="103"/>
+      <c r="I21" s="103"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="103"/>
+      <c r="L21" s="103"/>
+      <c r="N21" s="104"/>
+      <c r="O21" s="104"/>
+      <c r="P21" s="104"/>
+      <c r="Q21" s="104"/>
+      <c r="R21" s="104"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="H22" s="103"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="103"/>
+      <c r="L22" s="103"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O25" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25">
+        <v>176.13135855960101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O26" t="s">
+        <v>68</v>
+      </c>
+      <c r="P26">
+        <v>61982.386157264402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O27" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27">
+        <v>61982.386157264402</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O28" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28">
+        <f>P25+P26+P27</f>
+        <v>124140.90367308841</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
+        <v>71</v>
+      </c>
+      <c r="P29">
+        <f>SQRT(124140.903673088)</f>
+        <v>352.33635020117924</v>
+      </c>
+    </row>
+    <row r="36" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G36" s="67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H36" s="67"/>
+      <c r="I36" s="67"/>
+      <c r="J36" s="67"/>
+      <c r="K36" s="67"/>
+      <c r="L36" s="67"/>
+      <c r="M36" s="67"/>
+      <c r="N36" s="67"/>
+    </row>
+    <row r="37" spans="7:14" x14ac:dyDescent="0.25">
+      <c r="G37" s="67"/>
+      <c r="H37" s="67"/>
+      <c r="I37" s="67"/>
+      <c r="J37" s="67"/>
+      <c r="K37" s="67"/>
+      <c r="L37" s="67"/>
+      <c r="M37" s="67"/>
+      <c r="N37" s="67"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="G36:N37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
